--- a/dpd_SWAT Knock and Announce Warrants 20-22_2.xlsx
+++ b/dpd_SWAT Knock and Announce Warrants 20-22_2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B9BEE9-DDF1-4B29-B948-17715942635C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B96412E-7267-4B58-BB40-439A5B1B4A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{563B2BA7-8CB3-45FD-8D63-C31EE2A980A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{563B2BA7-8CB3-45FD-8D63-C31EE2A980A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data diary" sheetId="7" r:id="rId1"/>
@@ -1993,7 +1993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DCCD903-3591-4DFC-B431-EBDB31761D15}">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -2948,8 +2948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D8EA4C-321C-4411-9516-9448B0D0BD5A}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4589,8 +4589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668727E6-0124-4D8E-B230-49C96A5D1684}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4627,100 +4627,100 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" s="13">
-        <v>14477</v>
+        <v>17707</v>
       </c>
       <c r="C2" s="13">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D2" s="16">
-        <v>49.008641240000003</v>
+        <v>11.06235719</v>
       </c>
       <c r="E2" s="13">
-        <v>20.682409419999999</v>
+        <v>80.112349210000005</v>
       </c>
       <c r="F2" s="13">
-        <v>20.14705614</v>
+        <v>4.21577979</v>
       </c>
       <c r="G2" s="13">
-        <v>0</v>
+        <v>0.95757820999999999</v>
       </c>
       <c r="H2" s="13">
         <v>0</v>
       </c>
       <c r="I2" s="13">
-        <v>0.1070091</v>
+        <v>0</v>
       </c>
       <c r="J2" s="13">
-        <v>4.6100098000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+        <v>0.37620625000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B3" s="13">
-        <v>10091</v>
+        <v>37060</v>
       </c>
       <c r="C3" s="13">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D3" s="16">
-        <v>46.262175130000003</v>
+        <v>9.4681963000000007</v>
       </c>
       <c r="E3" s="13">
-        <v>44.710295160000001</v>
+        <v>64.652140000000003</v>
       </c>
       <c r="F3" s="13">
-        <v>4.5666095999999996</v>
+        <v>19.43616527</v>
       </c>
       <c r="G3" s="13">
-        <v>0.61068685</v>
+        <v>0.38692241999999999</v>
       </c>
       <c r="H3" s="13">
-        <v>9.1529369999999999E-2</v>
+        <v>0.45268245000000001</v>
       </c>
       <c r="I3" s="13">
-        <v>0.53681135000000002</v>
+        <v>0.44746649999999999</v>
       </c>
       <c r="J3" s="13">
-        <v>1.3789364200000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+        <v>2.7210643800000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B4" s="13">
-        <v>3820</v>
+        <v>9846</v>
       </c>
       <c r="C4" s="13">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D4" s="16">
-        <v>45.811518319999998</v>
+        <v>27.148408329999999</v>
       </c>
       <c r="E4" s="13">
-        <v>49.712041880000001</v>
+        <v>69.787997469999993</v>
       </c>
       <c r="F4" s="13">
-        <v>1.38743456</v>
+        <v>2.0191359499999999</v>
       </c>
       <c r="G4" s="13">
-        <v>0.23560208999999999</v>
+        <v>0.82952004999999995</v>
       </c>
       <c r="H4" s="13">
-        <v>0.54973822000000006</v>
+        <v>0</v>
       </c>
       <c r="I4" s="13">
         <v>0</v>
       </c>
       <c r="J4" s="13">
-        <v>2.0942408399999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
@@ -4755,36 +4755,36 @@
         <v>2.58463529</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B6" s="13">
-        <v>6916</v>
+        <v>5228</v>
       </c>
       <c r="C6" s="13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D6" s="16">
-        <v>38.148623469999997</v>
+        <v>34.64039786</v>
       </c>
       <c r="E6" s="13">
-        <v>44.309389029999998</v>
+        <v>35.78806427</v>
       </c>
       <c r="F6" s="13">
-        <v>12.9224242</v>
+        <v>16.239479719999999</v>
       </c>
       <c r="G6" s="13">
-        <v>0.48656283</v>
+        <v>0</v>
       </c>
       <c r="H6" s="13">
         <v>0</v>
       </c>
       <c r="I6" s="13">
-        <v>0.33613444999999997</v>
+        <v>0</v>
       </c>
       <c r="J6" s="13">
-        <v>1.96283534</v>
+        <v>1.53022188</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
@@ -4821,66 +4821,66 @@
     </row>
     <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B8" s="13">
-        <v>13338</v>
+        <v>9233</v>
       </c>
       <c r="C8" s="13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D8" s="16">
-        <v>37.952129839999998</v>
+        <v>25.46269328</v>
       </c>
       <c r="E8" s="13">
-        <v>54.005394330000001</v>
+        <v>66.475966189999994</v>
       </c>
       <c r="F8" s="13">
-        <v>2.3239734699999999</v>
+        <v>1.1260419399999999</v>
       </c>
       <c r="G8" s="13">
-        <v>0.11771223</v>
+        <v>1.64491184</v>
       </c>
       <c r="H8" s="13">
-        <v>0</v>
+        <v>7.6060089999999997E-2</v>
       </c>
       <c r="I8" s="13">
-        <v>5.7217589999999999E-2</v>
+        <v>0.22089292999999999</v>
       </c>
       <c r="J8" s="13">
-        <v>0.82654950999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.14243725</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B9" s="13">
-        <v>4552</v>
+        <v>39431</v>
       </c>
       <c r="C9" s="13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D9" s="16">
-        <v>37.214411249999998</v>
+        <v>23.570113410000001</v>
       </c>
       <c r="E9" s="13">
-        <v>46.550966610000003</v>
+        <v>41.687211650000002</v>
       </c>
       <c r="F9" s="13">
-        <v>13.818101929999999</v>
+        <v>25.954962829999999</v>
       </c>
       <c r="G9" s="13">
-        <v>0.39543057999999998</v>
+        <v>0.25922434</v>
       </c>
       <c r="H9" s="13">
-        <v>0</v>
+        <v>4.8772969999999999E-2</v>
       </c>
       <c r="I9" s="13">
-        <v>2.1968370000000001E-2</v>
+        <v>0.22497824999999999</v>
       </c>
       <c r="J9" s="13">
-        <v>1.8892794399999999</v>
+        <v>3.2284678499999999</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
@@ -4917,503 +4917,505 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="B11" s="13">
-        <v>1708</v>
-      </c>
-      <c r="C11" s="14"/>
+        <v>4377</v>
+      </c>
+      <c r="C11" s="13">
+        <v>5</v>
+      </c>
       <c r="D11" s="16">
-        <v>35.304449650000002</v>
+        <v>33.196253140000003</v>
       </c>
       <c r="E11" s="13">
-        <v>28.747072599999999</v>
+        <v>58.281928260000001</v>
       </c>
       <c r="F11" s="13">
-        <v>27.16627635</v>
+        <v>4.1580991599999999</v>
       </c>
       <c r="G11" s="13">
-        <v>0.64402809999999999</v>
+        <v>0.22846699000000001</v>
       </c>
       <c r="H11" s="13">
         <v>0</v>
       </c>
       <c r="I11" s="13">
-        <v>0</v>
+        <v>0.41124058000000002</v>
       </c>
       <c r="J11" s="13">
-        <v>7.0257611200000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2.51313685</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B12" s="13">
-        <v>5228</v>
+        <v>10091</v>
       </c>
       <c r="C12" s="13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D12" s="16">
-        <v>34.64039786</v>
+        <v>46.262175130000003</v>
       </c>
       <c r="E12" s="13">
-        <v>35.78806427</v>
+        <v>44.710295160000001</v>
       </c>
       <c r="F12" s="13">
-        <v>16.239479719999999</v>
+        <v>4.5666095999999996</v>
       </c>
       <c r="G12" s="13">
-        <v>0</v>
+        <v>0.61068685</v>
       </c>
       <c r="H12" s="13">
-        <v>0</v>
+        <v>9.1529369999999999E-2</v>
       </c>
       <c r="I12" s="13">
-        <v>0</v>
+        <v>0.53681135000000002</v>
       </c>
       <c r="J12" s="13">
-        <v>1.53022188</v>
+        <v>1.3789364200000001</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B13" s="13">
-        <v>4377</v>
+        <v>4862</v>
       </c>
       <c r="C13" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="16">
-        <v>33.196253140000003</v>
+        <v>29.658576719999999</v>
       </c>
       <c r="E13" s="13">
-        <v>58.281928260000001</v>
+        <v>49.83545866</v>
       </c>
       <c r="F13" s="13">
-        <v>4.1580991599999999</v>
+        <v>14.47963801</v>
       </c>
       <c r="G13" s="13">
-        <v>0.22846699000000001</v>
+        <v>0.26737968000000001</v>
       </c>
       <c r="H13" s="13">
-        <v>0</v>
+        <v>0.28794734999999999</v>
       </c>
       <c r="I13" s="13">
-        <v>0.41124058000000002</v>
+        <v>0</v>
       </c>
       <c r="J13" s="13">
-        <v>2.51313685</v>
+        <v>3.9901275200000001</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B14" s="13">
-        <v>4862</v>
+        <v>14179</v>
       </c>
       <c r="C14" s="13">
         <v>4</v>
       </c>
       <c r="D14" s="16">
-        <v>29.658576719999999</v>
+        <v>26.90626966</v>
       </c>
       <c r="E14" s="13">
-        <v>49.83545866</v>
+        <v>63.766593309999998</v>
       </c>
       <c r="F14" s="13">
-        <v>14.47963801</v>
+        <v>1.9629134399999999</v>
       </c>
       <c r="G14" s="13">
-        <v>0.26737968000000001</v>
+        <v>1.8349357799999999</v>
       </c>
       <c r="H14" s="13">
-        <v>0.28794734999999999</v>
+        <v>0</v>
       </c>
       <c r="I14" s="13">
-        <v>0</v>
+        <v>0.28057112000000001</v>
       </c>
       <c r="J14" s="13">
-        <v>3.9901275200000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+        <v>0.61381032000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B15" s="13">
-        <v>9643</v>
+        <v>6021</v>
       </c>
       <c r="C15" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" s="16">
-        <v>28.097137109999998</v>
+        <v>26.49061618</v>
       </c>
       <c r="E15" s="13">
-        <v>27.08039295</v>
+        <v>70.470021590000002</v>
       </c>
       <c r="F15" s="13">
-        <v>36.508258210000001</v>
+        <v>0.23251952000000001</v>
       </c>
       <c r="G15" s="13">
-        <v>0.50119851999999998</v>
+        <v>2.8068427200000001</v>
       </c>
       <c r="H15" s="13">
         <v>0</v>
       </c>
       <c r="I15" s="13">
-        <v>5.9358920000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="J15" s="13">
-        <v>6.6663602500000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" s="13">
-        <v>9846</v>
+        <v>14477</v>
       </c>
       <c r="C16" s="13">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D16" s="16">
-        <v>27.148408329999999</v>
+        <v>49.008641240000003</v>
       </c>
       <c r="E16" s="13">
-        <v>69.787997469999993</v>
+        <v>20.682409419999999</v>
       </c>
       <c r="F16" s="13">
-        <v>2.0191359499999999</v>
+        <v>20.14705614</v>
       </c>
       <c r="G16" s="13">
-        <v>0.82952004999999995</v>
+        <v>0</v>
       </c>
       <c r="H16" s="13">
         <v>0</v>
       </c>
       <c r="I16" s="13">
-        <v>0</v>
+        <v>0.1070091</v>
       </c>
       <c r="J16" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4.6100098000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="13">
-        <v>14179</v>
+        <v>13338</v>
       </c>
       <c r="C17" s="13">
+        <v>3</v>
+      </c>
+      <c r="D17" s="16">
+        <v>37.952129839999998</v>
+      </c>
+      <c r="E17" s="13">
+        <v>54.005394330000001</v>
+      </c>
+      <c r="F17" s="13">
+        <v>2.3239734699999999</v>
+      </c>
+      <c r="G17" s="13">
+        <v>0.11771223</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0</v>
+      </c>
+      <c r="I17" s="13">
+        <v>5.7217589999999999E-2</v>
+      </c>
+      <c r="J17" s="13">
+        <v>0.82654950999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="13">
+        <v>9643</v>
+      </c>
+      <c r="C18" s="13">
+        <v>3</v>
+      </c>
+      <c r="D18" s="16">
+        <v>28.097137109999998</v>
+      </c>
+      <c r="E18" s="13">
+        <v>27.08039295</v>
+      </c>
+      <c r="F18" s="13">
+        <v>36.508258210000001</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.50119851999999998</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13">
+        <v>5.9358920000000003E-2</v>
+      </c>
+      <c r="J18" s="13">
+        <v>6.6663602500000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="16">
-        <v>26.90626966</v>
-      </c>
-      <c r="E17" s="13">
-        <v>63.766593309999998</v>
-      </c>
-      <c r="F17" s="13">
-        <v>1.9629134399999999</v>
-      </c>
-      <c r="G17" s="13">
-        <v>1.8349357799999999</v>
-      </c>
-      <c r="H17" s="13">
-        <v>0</v>
-      </c>
-      <c r="I17" s="13">
-        <v>0.28057112000000001</v>
-      </c>
-      <c r="J17" s="13">
-        <v>0.61381032000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="13">
-        <v>6021</v>
-      </c>
-      <c r="C18" s="13">
-        <v>4</v>
-      </c>
-      <c r="D18" s="16">
-        <v>26.49061618</v>
-      </c>
-      <c r="E18" s="13">
-        <v>70.470021590000002</v>
-      </c>
-      <c r="F18" s="13">
-        <v>0.23251952000000001</v>
-      </c>
-      <c r="G18" s="13">
-        <v>2.8068427200000001</v>
-      </c>
-      <c r="H18" s="13">
-        <v>0</v>
-      </c>
-      <c r="I18" s="13">
-        <v>0</v>
-      </c>
-      <c r="J18" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>11</v>
-      </c>
       <c r="B19" s="13">
-        <v>9233</v>
+        <v>11144</v>
       </c>
       <c r="C19" s="13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D19" s="16">
-        <v>25.46269328</v>
+        <v>24.256083090000001</v>
       </c>
       <c r="E19" s="13">
-        <v>66.475966189999994</v>
+        <v>59.244299310000002</v>
       </c>
       <c r="F19" s="13">
-        <v>1.1260419399999999</v>
+        <v>4.5236201500000002</v>
       </c>
       <c r="G19" s="13">
-        <v>1.64491184</v>
+        <v>0.21083702000000001</v>
       </c>
       <c r="H19" s="13">
-        <v>7.6060089999999997E-2</v>
+        <v>5.2709260000000001E-2</v>
       </c>
       <c r="I19" s="13">
-        <v>0.22089292999999999</v>
+        <v>0</v>
       </c>
       <c r="J19" s="13">
-        <v>1.14243725</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3.03594279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B20" s="13">
-        <v>11144</v>
+        <v>8879</v>
       </c>
       <c r="C20" s="13">
         <v>3</v>
       </c>
       <c r="D20" s="16">
-        <v>24.256083090000001</v>
+        <v>13.70649848</v>
       </c>
       <c r="E20" s="13">
-        <v>59.244299310000002</v>
+        <v>75.864399140000003</v>
       </c>
       <c r="F20" s="13">
-        <v>4.5236201500000002</v>
+        <v>3.4350715200000002</v>
       </c>
       <c r="G20" s="13">
-        <v>0.21083702000000001</v>
+        <v>0.19146299999999999</v>
       </c>
       <c r="H20" s="13">
-        <v>5.2709260000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="I20" s="13">
-        <v>0</v>
+        <v>1.126253E-2</v>
       </c>
       <c r="J20" s="13">
-        <v>3.03594279</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+        <v>0.18020047</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B21" s="13">
-        <v>39431</v>
+        <v>3820</v>
       </c>
       <c r="C21" s="13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D21" s="16">
-        <v>23.570113410000001</v>
+        <v>45.811518319999998</v>
       </c>
       <c r="E21" s="13">
-        <v>41.687211650000002</v>
+        <v>49.712041880000001</v>
       </c>
       <c r="F21" s="13">
-        <v>25.954962829999999</v>
+        <v>1.38743456</v>
       </c>
       <c r="G21" s="13">
-        <v>0.25922434</v>
+        <v>0.23560208999999999</v>
       </c>
       <c r="H21" s="13">
-        <v>4.8772969999999999E-2</v>
+        <v>0.54973822000000006</v>
       </c>
       <c r="I21" s="13">
-        <v>0.22497824999999999</v>
+        <v>0</v>
       </c>
       <c r="J21" s="13">
-        <v>3.2284678499999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+        <v>2.0942408399999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="B22" s="13">
-        <v>6145</v>
+        <v>4552</v>
       </c>
       <c r="C22" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="16">
-        <v>22.245728230000001</v>
+        <v>37.214411249999998</v>
       </c>
       <c r="E22" s="13">
-        <v>72.416598859999993</v>
+        <v>46.550966610000003</v>
       </c>
       <c r="F22" s="13">
-        <v>2.9454841300000001</v>
+        <v>13.818101929999999</v>
       </c>
       <c r="G22" s="13">
-        <v>0.40683482999999998</v>
+        <v>0.39543057999999998</v>
       </c>
       <c r="H22" s="13">
         <v>0</v>
       </c>
       <c r="I22" s="13">
-        <v>0</v>
+        <v>2.1968370000000001E-2</v>
       </c>
       <c r="J22" s="13">
-        <v>1.02522376</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+        <v>1.8892794399999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="B23" s="13">
-        <v>8879</v>
+        <v>6636</v>
       </c>
       <c r="C23" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="16">
-        <v>13.70649848</v>
+        <v>12.5376733</v>
       </c>
       <c r="E23" s="13">
-        <v>75.864399140000003</v>
+        <v>82.097649189999998</v>
       </c>
       <c r="F23" s="13">
-        <v>3.4350715200000002</v>
+        <v>3.4358046999999998</v>
       </c>
       <c r="G23" s="13">
-        <v>0.19146299999999999</v>
+        <v>0.75346594</v>
       </c>
       <c r="H23" s="13">
         <v>0</v>
       </c>
       <c r="I23" s="13">
-        <v>1.126253E-2</v>
+        <v>0</v>
       </c>
       <c r="J23" s="13">
-        <v>0.18020047</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+        <v>0.99457505000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B24" s="13">
-        <v>6636</v>
+        <v>4803</v>
       </c>
       <c r="C24" s="13">
         <v>2</v>
       </c>
       <c r="D24" s="16">
-        <v>12.5376733</v>
+        <v>11.26379346</v>
       </c>
       <c r="E24" s="13">
-        <v>82.097649189999998</v>
+        <v>77.326670829999998</v>
       </c>
       <c r="F24" s="13">
-        <v>3.4358046999999998</v>
+        <v>4.7470331000000003</v>
       </c>
       <c r="G24" s="13">
-        <v>0.75346594</v>
+        <v>0.18738289</v>
       </c>
       <c r="H24" s="13">
         <v>0</v>
       </c>
       <c r="I24" s="13">
-        <v>0</v>
+        <v>0.70789089999999999</v>
       </c>
       <c r="J24" s="13">
-        <v>0.99457505000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.18738289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B25" s="13">
-        <v>4803</v>
+        <v>6916</v>
       </c>
       <c r="C25" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" s="16">
-        <v>11.26379346</v>
+        <v>38.148623469999997</v>
       </c>
       <c r="E25" s="13">
-        <v>77.326670829999998</v>
+        <v>44.309389029999998</v>
       </c>
       <c r="F25" s="13">
-        <v>4.7470331000000003</v>
+        <v>12.9224242</v>
       </c>
       <c r="G25" s="13">
-        <v>0.18738289</v>
+        <v>0.48656283</v>
       </c>
       <c r="H25" s="13">
         <v>0</v>
       </c>
       <c r="I25" s="13">
-        <v>0.70789089999999999</v>
+        <v>0.33613444999999997</v>
       </c>
       <c r="J25" s="13">
-        <v>0.18738289</v>
+        <v>1.96283534</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="B26" s="13">
-        <v>17707</v>
+        <v>6145</v>
       </c>
       <c r="C26" s="13">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D26" s="16">
-        <v>11.06235719</v>
+        <v>22.245728230000001</v>
       </c>
       <c r="E26" s="13">
-        <v>80.112349210000005</v>
+        <v>72.416598859999993</v>
       </c>
       <c r="F26" s="13">
-        <v>4.21577979</v>
+        <v>2.9454841300000001</v>
       </c>
       <c r="G26" s="13">
-        <v>0.95757820999999999</v>
+        <v>0.40683482999999998</v>
       </c>
       <c r="H26" s="13">
         <v>0</v>
@@ -5422,69 +5424,67 @@
         <v>0</v>
       </c>
       <c r="J26" s="13">
-        <v>0.37620625000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+        <v>1.02522376</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B27" s="13">
-        <v>1437</v>
+        <v>1708</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="16">
+        <v>35.304449650000002</v>
+      </c>
+      <c r="E27" s="13">
+        <v>28.747072599999999</v>
+      </c>
+      <c r="F27" s="13">
+        <v>27.16627635</v>
+      </c>
+      <c r="G27" s="13">
+        <v>0.64402809999999999</v>
+      </c>
+      <c r="H27" s="13">
+        <v>0</v>
+      </c>
+      <c r="I27" s="13">
+        <v>0</v>
+      </c>
+      <c r="J27" s="13">
+        <v>7.0257611200000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="13">
+        <v>1437</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="16">
         <v>10.16005567</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E28" s="13">
         <v>41.684064020000001</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F28" s="13">
         <v>43.632567850000001</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G28" s="13">
         <v>1.8789144099999999</v>
       </c>
-      <c r="H27" s="13">
-        <v>0</v>
-      </c>
-      <c r="I27" s="13">
-        <v>0</v>
-      </c>
-      <c r="J27" s="13">
+      <c r="H28" s="13">
+        <v>0</v>
+      </c>
+      <c r="I28" s="13">
+        <v>0</v>
+      </c>
+      <c r="J28" s="13">
         <v>0.13917884999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="13">
-        <v>37060</v>
-      </c>
-      <c r="C28" s="13">
-        <v>12</v>
-      </c>
-      <c r="D28" s="16">
-        <v>9.4681963000000007</v>
-      </c>
-      <c r="E28" s="13">
-        <v>64.652140000000003</v>
-      </c>
-      <c r="F28" s="13">
-        <v>19.43616527</v>
-      </c>
-      <c r="G28" s="13">
-        <v>0.38692241999999999</v>
-      </c>
-      <c r="H28" s="13">
-        <v>0.45268245000000001</v>
-      </c>
-      <c r="I28" s="13">
-        <v>0.44746649999999999</v>
-      </c>
-      <c r="J28" s="13">
-        <v>2.7210643800000001</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -5494,18 +5494,20 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J28">
+    <sortCondition descending="1" ref="C2:C28"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13D99EB-E24B-4387-B8E6-9E120DCCF642}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D55" sqref="A1:J79"/>
+      <selection pane="bottomLeft" sqref="A1:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5545,25 +5547,27 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="B2" s="13">
-        <v>3032</v>
-      </c>
-      <c r="C2" s="14"/>
+        <v>17707</v>
+      </c>
+      <c r="C2" s="13">
+        <v>16</v>
+      </c>
       <c r="D2" s="16">
-        <v>92.348284960000001</v>
+        <v>11.06235719</v>
       </c>
       <c r="E2" s="13">
-        <v>3.1662269099999998</v>
+        <v>80.112349210000005</v>
       </c>
       <c r="F2" s="13">
-        <v>0.95646438</v>
+        <v>4.21577979</v>
       </c>
       <c r="G2" s="13">
-        <v>1.5171504</v>
+        <v>0.95757820999999999</v>
       </c>
       <c r="H2" s="13">
         <v>0</v>
@@ -5572,88 +5576,94 @@
         <v>0</v>
       </c>
       <c r="J2" s="13">
-        <v>1.6490765199999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.37620625000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="B3" s="13">
-        <v>7514</v>
-      </c>
-      <c r="C3" s="14"/>
+        <v>37060</v>
+      </c>
+      <c r="C3" s="13">
+        <v>12</v>
+      </c>
       <c r="D3" s="16">
-        <v>89.662234740000002</v>
+        <v>9.4681963000000007</v>
       </c>
       <c r="E3" s="13">
-        <v>6.2040878099999999</v>
+        <v>64.652140000000003</v>
       </c>
       <c r="F3" s="13">
-        <v>0.67343558000000003</v>
+        <v>19.43616527</v>
       </c>
       <c r="G3" s="13">
-        <v>0.51621384000000003</v>
+        <v>0.38692241999999999</v>
       </c>
       <c r="H3" s="13">
-        <v>0.11286682000000001</v>
+        <v>0.45268245000000001</v>
       </c>
       <c r="I3" s="13">
-        <v>0.20692250000000001</v>
+        <v>0.44746649999999999</v>
       </c>
       <c r="J3" s="13">
-        <v>1.1843035799999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>2.7210643800000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="B4" s="13">
-        <v>4204</v>
-      </c>
-      <c r="C4" s="14"/>
+        <v>20182</v>
+      </c>
+      <c r="C4" s="13">
+        <v>9</v>
+      </c>
       <c r="D4" s="16">
-        <v>87.274024740000002</v>
+        <v>63.147616769999999</v>
       </c>
       <c r="E4" s="13">
-        <v>5.0190295000000003</v>
+        <v>14.93000853</v>
       </c>
       <c r="F4" s="13">
-        <v>3.3063748799999999</v>
+        <v>15.06085729</v>
       </c>
       <c r="G4" s="13">
-        <v>0</v>
+        <v>2.4414060000000001E-2</v>
       </c>
       <c r="H4" s="13">
-        <v>0</v>
+        <v>0.18563170000000001</v>
       </c>
       <c r="I4" s="13">
-        <v>0.85632730999999995</v>
+        <v>0.10774203</v>
       </c>
       <c r="J4" s="13">
-        <v>1.4509990500000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>2.4188647699999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B5" s="13">
-        <v>5874</v>
-      </c>
-      <c r="C5" s="14"/>
+        <v>9846</v>
+      </c>
+      <c r="C5" s="13">
+        <v>9</v>
+      </c>
       <c r="D5" s="16">
-        <v>86.550902280000003</v>
+        <v>27.148408329999999</v>
       </c>
       <c r="E5" s="13">
-        <v>8.1716036800000005</v>
+        <v>69.787997469999993</v>
       </c>
       <c r="F5" s="13">
-        <v>0.83418453999999997</v>
+        <v>2.0191359499999999</v>
       </c>
       <c r="G5" s="13">
-        <v>0</v>
+        <v>0.82952004999999995</v>
       </c>
       <c r="H5" s="13">
         <v>0</v>
@@ -5662,1019 +5672,1051 @@
         <v>0</v>
       </c>
       <c r="J5" s="13">
-        <v>3.7112699999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="B6" s="13">
-        <v>9309</v>
-      </c>
-      <c r="C6" s="14"/>
+        <v>16804</v>
+      </c>
+      <c r="C6" s="13">
+        <v>7</v>
+      </c>
       <c r="D6" s="16">
-        <v>86.016148540000003</v>
+        <v>74.129911930000006</v>
       </c>
       <c r="E6" s="13">
-        <v>5.9513565599999998</v>
+        <v>10.502160719999999</v>
       </c>
       <c r="F6" s="13">
-        <v>2.5964397400000001</v>
+        <v>7.72648022</v>
       </c>
       <c r="G6" s="13">
-        <v>0.41956019</v>
+        <v>0.16232337999999999</v>
       </c>
       <c r="H6" s="13">
-        <v>0.28190671</v>
+        <v>0</v>
       </c>
       <c r="I6" s="13">
-        <v>8.5426300000000007E-3</v>
+        <v>0.15384614999999999</v>
       </c>
       <c r="J6" s="13">
-        <v>2.8994138199999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>2.0594155399999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="13">
+        <v>9315</v>
+      </c>
+      <c r="C7" s="13">
+        <v>7</v>
+      </c>
+      <c r="D7" s="16">
+        <v>40.254610460000002</v>
+      </c>
+      <c r="E7" s="13">
+        <v>49.127874570000003</v>
+      </c>
+      <c r="F7" s="13">
+        <v>5.79791452</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.37056316</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.14586372</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.20837675</v>
+      </c>
+      <c r="J7" s="13">
+        <v>2.58463529</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="13">
+        <v>5228</v>
+      </c>
+      <c r="C8" s="13">
+        <v>7</v>
+      </c>
+      <c r="D8" s="16">
+        <v>34.64039786</v>
+      </c>
+      <c r="E8" s="13">
+        <v>35.78806427</v>
+      </c>
+      <c r="F8" s="13">
+        <v>16.239479719999999</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
+        <v>1.53022188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="13">
+        <v>18924</v>
+      </c>
+      <c r="C9" s="13">
+        <v>6</v>
+      </c>
+      <c r="D9" s="16">
+        <v>59.220125779999996</v>
+      </c>
+      <c r="E9" s="13">
+        <v>15.839333140000001</v>
+      </c>
+      <c r="F9" s="13">
+        <v>16.08179668</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0.43215166999999999</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13">
+        <v>6.9466050700000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13">
+        <v>9638</v>
+      </c>
+      <c r="C10" s="13">
+        <v>6</v>
+      </c>
+      <c r="D10" s="16">
+        <v>37.98524046</v>
+      </c>
+      <c r="E10" s="13">
+        <v>48.961950420000001</v>
+      </c>
+      <c r="F10" s="13">
+        <v>2.8946930599999998</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.25384030000000002</v>
+      </c>
+      <c r="H10" s="13">
+        <v>3.8323683499999999</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.38954638000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="13">
+        <v>9233</v>
+      </c>
+      <c r="C11" s="13">
+        <v>6</v>
+      </c>
+      <c r="D11" s="16">
+        <v>25.46269328</v>
+      </c>
+      <c r="E11" s="13">
+        <v>66.475966189999994</v>
+      </c>
+      <c r="F11" s="13">
+        <v>1.1260419399999999</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1.64491184</v>
+      </c>
+      <c r="H11" s="13">
+        <v>7.6060089999999997E-2</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.22089292999999999</v>
+      </c>
+      <c r="J11" s="13">
+        <v>1.14243725</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="13">
+        <v>39431</v>
+      </c>
+      <c r="C12" s="13">
+        <v>6</v>
+      </c>
+      <c r="D12" s="16">
+        <v>23.570113410000001</v>
+      </c>
+      <c r="E12" s="13">
+        <v>41.687211650000002</v>
+      </c>
+      <c r="F12" s="13">
+        <v>25.954962829999999</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0.25922434</v>
+      </c>
+      <c r="H12" s="13">
+        <v>4.8772969999999999E-2</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0.22497824999999999</v>
+      </c>
+      <c r="J12" s="13">
+        <v>3.2284678499999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="13">
+        <v>8189</v>
+      </c>
+      <c r="C13" s="13">
+        <v>5</v>
+      </c>
+      <c r="D13" s="16">
+        <v>71.073509630000004</v>
+      </c>
+      <c r="E13" s="13">
+        <v>20.16276212</v>
+      </c>
+      <c r="F13" s="13">
+        <v>5.0754139699999996</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0.35797536000000002</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0.16032982000000001</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="13">
+        <v>1.4798646200000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="13">
+        <v>11040</v>
+      </c>
+      <c r="C14" s="13">
+        <v>5</v>
+      </c>
+      <c r="D14" s="16">
+        <v>35.858793249999998</v>
+      </c>
+      <c r="E14" s="13">
+        <v>27.961267450000001</v>
+      </c>
+      <c r="F14" s="13">
+        <v>26.4967653</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.52636073999999999</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0</v>
+      </c>
+      <c r="J14" s="13">
+        <v>3.3685574599999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="13">
+        <v>4377</v>
+      </c>
+      <c r="C15" s="13">
+        <v>5</v>
+      </c>
+      <c r="D15" s="16">
+        <v>33.196253140000003</v>
+      </c>
+      <c r="E15" s="13">
+        <v>58.281928260000001</v>
+      </c>
+      <c r="F15" s="13">
+        <v>4.1580991599999999</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.22846699000000001</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0.41124058000000002</v>
+      </c>
+      <c r="J15" s="13">
+        <v>2.51313685</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="13">
+        <v>6568</v>
+      </c>
+      <c r="C16" s="13">
+        <v>4</v>
+      </c>
+      <c r="D16" s="16">
+        <v>65.255785630000005</v>
+      </c>
+      <c r="E16" s="13">
+        <v>23.858099880000001</v>
+      </c>
+      <c r="F16" s="13">
+        <v>3.98903776</v>
+      </c>
+      <c r="G16" s="13">
+        <v>1.3246041399999999</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0</v>
+      </c>
+      <c r="I16" s="13">
+        <v>0</v>
+      </c>
+      <c r="J16" s="13">
+        <v>3.2125456799999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="13">
+        <v>10351</v>
+      </c>
+      <c r="C17" s="13">
+        <v>4</v>
+      </c>
+      <c r="D17" s="16">
+        <v>55.358904320000001</v>
+      </c>
+      <c r="E17" s="13">
+        <v>10.09512093</v>
+      </c>
+      <c r="F17" s="13">
+        <v>27.603057539999998</v>
+      </c>
+      <c r="G17" s="13">
+        <v>0</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0.37546933999999998</v>
+      </c>
+      <c r="I17" s="13">
+        <v>1.1557712600000001</v>
+      </c>
+      <c r="J17" s="13">
+        <v>4.0470050300000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="13">
+        <v>10091</v>
+      </c>
+      <c r="C18" s="13">
+        <v>4</v>
+      </c>
+      <c r="D18" s="16">
+        <v>46.262175130000003</v>
+      </c>
+      <c r="E18" s="13">
+        <v>44.710295160000001</v>
+      </c>
+      <c r="F18" s="13">
+        <v>4.5666095999999996</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.61068685</v>
+      </c>
+      <c r="H18" s="13">
+        <v>9.1529369999999999E-2</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0.53681135000000002</v>
+      </c>
+      <c r="J18" s="13">
+        <v>1.3789364200000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="13">
+        <v>4862</v>
+      </c>
+      <c r="C19" s="13">
+        <v>4</v>
+      </c>
+      <c r="D19" s="16">
+        <v>29.658576719999999</v>
+      </c>
+      <c r="E19" s="13">
+        <v>49.83545866</v>
+      </c>
+      <c r="F19" s="13">
+        <v>14.47963801</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.26737968000000001</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0.28794734999999999</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0</v>
+      </c>
+      <c r="J19" s="13">
+        <v>3.9901275200000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="13">
+        <v>14179</v>
+      </c>
+      <c r="C20" s="13">
+        <v>4</v>
+      </c>
+      <c r="D20" s="16">
+        <v>26.90626966</v>
+      </c>
+      <c r="E20" s="13">
+        <v>63.766593309999998</v>
+      </c>
+      <c r="F20" s="13">
+        <v>1.9629134399999999</v>
+      </c>
+      <c r="G20" s="13">
+        <v>1.8349357799999999</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0</v>
+      </c>
+      <c r="I20" s="13">
+        <v>0.28057112000000001</v>
+      </c>
+      <c r="J20" s="13">
+        <v>0.61381032000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="13">
+        <v>6021</v>
+      </c>
+      <c r="C21" s="13">
+        <v>4</v>
+      </c>
+      <c r="D21" s="16">
+        <v>26.49061618</v>
+      </c>
+      <c r="E21" s="13">
+        <v>70.470021590000002</v>
+      </c>
+      <c r="F21" s="13">
+        <v>0.23251952000000001</v>
+      </c>
+      <c r="G21" s="13">
+        <v>2.8068427200000001</v>
+      </c>
+      <c r="H21" s="13">
+        <v>0</v>
+      </c>
+      <c r="I21" s="13">
+        <v>0</v>
+      </c>
+      <c r="J21" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="13">
+        <v>26922</v>
+      </c>
+      <c r="C22" s="13">
+        <v>3</v>
+      </c>
+      <c r="D22" s="16">
+        <v>73.108153560000005</v>
+      </c>
+      <c r="E22" s="13">
+        <v>9.6703741500000007</v>
+      </c>
+      <c r="F22" s="13">
+        <v>6.3931109900000003</v>
+      </c>
+      <c r="G22" s="13">
+        <v>0.70133703000000003</v>
+      </c>
+      <c r="H22" s="13">
+        <v>7.1150389999999994E-2</v>
+      </c>
+      <c r="I22" s="13">
+        <v>0.21370670999999999</v>
+      </c>
+      <c r="J22" s="13">
+        <v>4.6789752299999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="13">
+        <v>8725</v>
+      </c>
+      <c r="C23" s="13">
+        <v>3</v>
+      </c>
+      <c r="D23" s="16">
+        <v>57.050751419999997</v>
+      </c>
+      <c r="E23" s="13">
+        <v>30.83701301</v>
+      </c>
+      <c r="F23" s="13">
+        <v>4.99277573</v>
+      </c>
+      <c r="G23" s="13">
+        <v>0.32107882999999998</v>
+      </c>
+      <c r="H23" s="13">
+        <v>0</v>
+      </c>
+      <c r="I23" s="13">
+        <v>0</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0.62099358999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="13">
+        <v>14477</v>
+      </c>
+      <c r="C24" s="13">
+        <v>3</v>
+      </c>
+      <c r="D24" s="16">
+        <v>49.008641240000003</v>
+      </c>
+      <c r="E24" s="13">
+        <v>20.682409419999999</v>
+      </c>
+      <c r="F24" s="13">
+        <v>20.14705614</v>
+      </c>
+      <c r="G24" s="13">
+        <v>0</v>
+      </c>
+      <c r="H24" s="13">
+        <v>0</v>
+      </c>
+      <c r="I24" s="13">
+        <v>0.1070091</v>
+      </c>
+      <c r="J24" s="13">
+        <v>4.6100098000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="13">
+        <v>13338</v>
+      </c>
+      <c r="C25" s="13">
+        <v>3</v>
+      </c>
+      <c r="D25" s="16">
+        <v>37.952129839999998</v>
+      </c>
+      <c r="E25" s="13">
+        <v>54.005394330000001</v>
+      </c>
+      <c r="F25" s="13">
+        <v>2.3239734699999999</v>
+      </c>
+      <c r="G25" s="13">
+        <v>0.11771223</v>
+      </c>
+      <c r="H25" s="13">
+        <v>0</v>
+      </c>
+      <c r="I25" s="13">
+        <v>5.7217589999999999E-2</v>
+      </c>
+      <c r="J25" s="13">
+        <v>0.82654950999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="13">
+        <v>9643</v>
+      </c>
+      <c r="C26" s="13">
+        <v>3</v>
+      </c>
+      <c r="D26" s="16">
+        <v>28.097137109999998</v>
+      </c>
+      <c r="E26" s="13">
+        <v>27.08039295</v>
+      </c>
+      <c r="F26" s="13">
+        <v>36.508258210000001</v>
+      </c>
+      <c r="G26" s="13">
+        <v>0.50119851999999998</v>
+      </c>
+      <c r="H26" s="13">
+        <v>0</v>
+      </c>
+      <c r="I26" s="13">
+        <v>5.9358920000000003E-2</v>
+      </c>
+      <c r="J26" s="13">
+        <v>6.6663602500000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="13">
+        <v>11144</v>
+      </c>
+      <c r="C27" s="13">
+        <v>3</v>
+      </c>
+      <c r="D27" s="16">
+        <v>24.256083090000001</v>
+      </c>
+      <c r="E27" s="13">
+        <v>59.244299310000002</v>
+      </c>
+      <c r="F27" s="13">
+        <v>4.5236201500000002</v>
+      </c>
+      <c r="G27" s="13">
+        <v>0.21083702000000001</v>
+      </c>
+      <c r="H27" s="13">
+        <v>5.2709260000000001E-2</v>
+      </c>
+      <c r="I27" s="13">
+        <v>0</v>
+      </c>
+      <c r="J27" s="13">
+        <v>3.03594279</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="13">
+        <v>8879</v>
+      </c>
+      <c r="C28" s="13">
+        <v>3</v>
+      </c>
+      <c r="D28" s="16">
+        <v>13.70649848</v>
+      </c>
+      <c r="E28" s="13">
+        <v>75.864399140000003</v>
+      </c>
+      <c r="F28" s="13">
+        <v>3.4350715200000002</v>
+      </c>
+      <c r="G28" s="13">
+        <v>0.19146299999999999</v>
+      </c>
+      <c r="H28" s="13">
+        <v>0</v>
+      </c>
+      <c r="I28" s="13">
+        <v>1.126253E-2</v>
+      </c>
+      <c r="J28" s="13">
+        <v>0.18020047</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="13">
+        <v>5739</v>
+      </c>
+      <c r="C29" s="13">
+        <v>2</v>
+      </c>
+      <c r="D29" s="16">
+        <v>83.568565950000007</v>
+      </c>
+      <c r="E29" s="13">
+        <v>8.3115525399999992</v>
+      </c>
+      <c r="F29" s="13">
+        <v>2.9099146199999999</v>
+      </c>
+      <c r="G29" s="13">
+        <v>0.33106813000000002</v>
+      </c>
+      <c r="H29" s="13">
+        <v>0</v>
+      </c>
+      <c r="I29" s="13">
+        <v>0</v>
+      </c>
+      <c r="J29" s="13">
+        <v>3.64174943</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="13">
+        <v>8156</v>
+      </c>
+      <c r="C30" s="13">
+        <v>2</v>
+      </c>
+      <c r="D30" s="16">
+        <v>74.328767279999994</v>
+      </c>
+      <c r="E30" s="13">
+        <v>12.61747388</v>
+      </c>
+      <c r="F30" s="13">
+        <v>2.0137558900000001</v>
+      </c>
+      <c r="G30" s="13">
+        <v>0.57335460000000005</v>
+      </c>
+      <c r="H30" s="13">
+        <v>0</v>
+      </c>
+      <c r="I30" s="13">
+        <v>0</v>
+      </c>
+      <c r="J30" s="13">
+        <v>4.2564885300000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="13">
+        <v>10549</v>
+      </c>
+      <c r="C31" s="13">
+        <v>2</v>
+      </c>
+      <c r="D31" s="16">
+        <v>68.943406690000003</v>
+      </c>
+      <c r="E31" s="13">
+        <v>25.19154172</v>
+      </c>
+      <c r="F31" s="13">
+        <v>0.95408101000000001</v>
+      </c>
+      <c r="G31" s="13">
+        <v>1.8520144599999999</v>
+      </c>
+      <c r="H31" s="13">
+        <v>0</v>
+      </c>
+      <c r="I31" s="13">
+        <v>0</v>
+      </c>
+      <c r="J31" s="13">
+        <v>1.10434783</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="13">
+        <v>14793</v>
+      </c>
+      <c r="C32" s="13">
+        <v>2</v>
+      </c>
+      <c r="D32" s="16">
+        <v>61.389809589999999</v>
+      </c>
+      <c r="E32" s="13">
+        <v>17.71622236</v>
+      </c>
+      <c r="F32" s="13">
+        <v>11.478502219999999</v>
+      </c>
+      <c r="G32" s="13">
+        <v>0.35663929999999999</v>
+      </c>
+      <c r="H32" s="13">
+        <v>0</v>
+      </c>
+      <c r="I32" s="13">
+        <v>0.69714354000000001</v>
+      </c>
+      <c r="J32" s="13">
+        <v>3.5124470300000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="13">
+        <v>3820</v>
+      </c>
+      <c r="C33" s="13">
+        <v>2</v>
+      </c>
+      <c r="D33" s="16">
+        <v>45.811518319999998</v>
+      </c>
+      <c r="E33" s="13">
+        <v>49.712041880000001</v>
+      </c>
+      <c r="F33" s="13">
+        <v>1.38743456</v>
+      </c>
+      <c r="G33" s="13">
+        <v>0.23560208999999999</v>
+      </c>
+      <c r="H33" s="13">
+        <v>0.54973822000000006</v>
+      </c>
+      <c r="I33" s="13">
+        <v>0</v>
+      </c>
+      <c r="J33" s="13">
+        <v>2.0942408399999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="13">
+        <v>4552</v>
+      </c>
+      <c r="C34" s="13">
+        <v>2</v>
+      </c>
+      <c r="D34" s="16">
+        <v>37.214411249999998</v>
+      </c>
+      <c r="E34" s="13">
+        <v>46.550966610000003</v>
+      </c>
+      <c r="F34" s="13">
+        <v>13.818101929999999</v>
+      </c>
+      <c r="G34" s="13">
+        <v>0.39543057999999998</v>
+      </c>
+      <c r="H34" s="13">
+        <v>0</v>
+      </c>
+      <c r="I34" s="13">
+        <v>2.1968370000000001E-2</v>
+      </c>
+      <c r="J34" s="13">
+        <v>1.8892794399999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="13">
+        <v>6636</v>
+      </c>
+      <c r="C35" s="13">
+        <v>2</v>
+      </c>
+      <c r="D35" s="16">
+        <v>12.5376733</v>
+      </c>
+      <c r="E35" s="13">
+        <v>82.097649189999998</v>
+      </c>
+      <c r="F35" s="13">
+        <v>3.4358046999999998</v>
+      </c>
+      <c r="G35" s="13">
+        <v>0.75346594</v>
+      </c>
+      <c r="H35" s="13">
+        <v>0</v>
+      </c>
+      <c r="I35" s="13">
+        <v>0</v>
+      </c>
+      <c r="J35" s="13">
+        <v>0.99457505000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="13">
+        <v>4803</v>
+      </c>
+      <c r="C36" s="13">
+        <v>2</v>
+      </c>
+      <c r="D36" s="16">
+        <v>11.26379346</v>
+      </c>
+      <c r="E36" s="13">
+        <v>77.326670829999998</v>
+      </c>
+      <c r="F36" s="13">
+        <v>4.7470331000000003</v>
+      </c>
+      <c r="G36" s="13">
+        <v>0.18738289</v>
+      </c>
+      <c r="H36" s="13">
+        <v>0</v>
+      </c>
+      <c r="I36" s="13">
+        <v>0.70789089999999999</v>
+      </c>
+      <c r="J36" s="13">
+        <v>0.18738289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B37" s="13">
         <v>4502</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C37" s="13">
         <v>1</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D37" s="16">
         <v>85.93958241</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E37" s="13">
         <v>6.8191914699999998</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F37" s="13">
         <v>0.37760995000000003</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G37" s="13">
         <v>8.8849399999999995E-2</v>
       </c>
-      <c r="H7" s="13">
-        <v>0</v>
-      </c>
-      <c r="I7" s="13">
-        <v>0</v>
-      </c>
-      <c r="J7" s="13">
+      <c r="H37" s="13">
+        <v>0</v>
+      </c>
+      <c r="I37" s="13">
+        <v>0</v>
+      </c>
+      <c r="J37" s="13">
         <v>2.0435362100000001</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+    <row r="38" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B38" s="13">
         <v>6850</v>
-      </c>
-      <c r="C8" s="13">
-        <v>1</v>
-      </c>
-      <c r="D8" s="16">
-        <v>84.963503650000007</v>
-      </c>
-      <c r="E8" s="13">
-        <v>5.4160583899999999</v>
-      </c>
-      <c r="F8" s="13">
-        <v>2.1313868600000001</v>
-      </c>
-      <c r="G8" s="13">
-        <v>0</v>
-      </c>
-      <c r="H8" s="13">
-        <v>0</v>
-      </c>
-      <c r="I8" s="13">
-        <v>0.62773723000000003</v>
-      </c>
-      <c r="J8" s="13">
-        <v>2.0875912400000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" s="13">
-        <v>6045</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="16">
-        <v>84.504003890000007</v>
-      </c>
-      <c r="E9" s="13">
-        <v>5.8096654699999997</v>
-      </c>
-      <c r="F9" s="13">
-        <v>4.2295315100000002</v>
-      </c>
-      <c r="G9" s="13">
-        <v>0</v>
-      </c>
-      <c r="H9" s="13">
-        <v>0</v>
-      </c>
-      <c r="I9" s="13">
-        <v>0</v>
-      </c>
-      <c r="J9" s="13">
-        <v>1.93515192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" s="13">
-        <v>7798</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="16">
-        <v>83.872447480000005</v>
-      </c>
-      <c r="E10" s="13">
-        <v>7.5072642299999996</v>
-      </c>
-      <c r="F10" s="13">
-        <v>1.0545748500000001</v>
-      </c>
-      <c r="G10" s="13">
-        <v>0</v>
-      </c>
-      <c r="H10" s="13">
-        <v>0</v>
-      </c>
-      <c r="I10" s="13">
-        <v>0.34206181000000002</v>
-      </c>
-      <c r="J10" s="13">
-        <v>4.0642885700000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="13">
-        <v>5739</v>
-      </c>
-      <c r="C11" s="13">
-        <v>2</v>
-      </c>
-      <c r="D11" s="16">
-        <v>83.568565950000007</v>
-      </c>
-      <c r="E11" s="13">
-        <v>8.3115525399999992</v>
-      </c>
-      <c r="F11" s="13">
-        <v>2.9099146199999999</v>
-      </c>
-      <c r="G11" s="13">
-        <v>0.33106813000000002</v>
-      </c>
-      <c r="H11" s="13">
-        <v>0</v>
-      </c>
-      <c r="I11" s="13">
-        <v>0</v>
-      </c>
-      <c r="J11" s="13">
-        <v>3.64174943</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="13">
-        <v>7500</v>
-      </c>
-      <c r="C12" s="13">
-        <v>1</v>
-      </c>
-      <c r="D12" s="16">
-        <v>82.92</v>
-      </c>
-      <c r="E12" s="13">
-        <v>5.3406659999999997</v>
-      </c>
-      <c r="F12" s="13">
-        <v>0.94066660000000002</v>
-      </c>
-      <c r="G12" s="13">
-        <v>0.17033329999999999</v>
-      </c>
-      <c r="H12" s="13">
-        <v>0</v>
-      </c>
-      <c r="I12" s="13">
-        <v>0</v>
-      </c>
-      <c r="J12" s="13">
-        <v>1.3406659999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="13">
-        <v>9524</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="16">
-        <v>82.612464180000003</v>
-      </c>
-      <c r="E13" s="13">
-        <v>6.8649052399999997</v>
-      </c>
-      <c r="F13" s="13">
-        <v>3.8011397800000002</v>
-      </c>
-      <c r="G13" s="13">
-        <v>0.45070422999999998</v>
-      </c>
-      <c r="H13" s="13">
-        <v>0.22624433999999999</v>
-      </c>
-      <c r="I13" s="13">
-        <v>0.39295069999999999</v>
-      </c>
-      <c r="J13" s="13">
-        <v>3.2154156999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="13">
-        <v>12061</v>
-      </c>
-      <c r="C14" s="13">
-        <v>1</v>
-      </c>
-      <c r="D14" s="16">
-        <v>81.962919600000006</v>
-      </c>
-      <c r="E14" s="13">
-        <v>9.8366632599999999</v>
-      </c>
-      <c r="F14" s="13">
-        <v>1.9234034099999999</v>
-      </c>
-      <c r="G14" s="13">
-        <v>0.10673235</v>
-      </c>
-      <c r="H14" s="13">
-        <v>0</v>
-      </c>
-      <c r="I14" s="13">
-        <v>0.11103709</v>
-      </c>
-      <c r="J14" s="13">
-        <v>2.4631474</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="13">
-        <v>11475</v>
-      </c>
-      <c r="C15" s="13">
-        <v>1</v>
-      </c>
-      <c r="D15" s="16">
-        <v>79.875162290000006</v>
-      </c>
-      <c r="E15" s="13">
-        <v>11.69096141</v>
-      </c>
-      <c r="F15" s="13">
-        <v>2.6809590000000001</v>
-      </c>
-      <c r="G15" s="13">
-        <v>0.10368065999999999</v>
-      </c>
-      <c r="H15" s="13">
-        <v>0</v>
-      </c>
-      <c r="I15" s="13">
-        <v>0</v>
-      </c>
-      <c r="J15" s="13">
-        <v>3.55764937</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="13">
-        <v>3525</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="16">
-        <v>79.829787229999994</v>
-      </c>
-      <c r="E16" s="13">
-        <v>14.0141844</v>
-      </c>
-      <c r="F16" s="13">
-        <v>0</v>
-      </c>
-      <c r="G16" s="13">
-        <v>0</v>
-      </c>
-      <c r="H16" s="13">
-        <v>0.28368794000000003</v>
-      </c>
-      <c r="I16" s="13">
-        <v>0</v>
-      </c>
-      <c r="J16" s="13">
-        <v>3.3475177299999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="13">
-        <v>7748</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="16">
-        <v>79.356990640000006</v>
-      </c>
-      <c r="E17" s="13">
-        <v>11.54043761</v>
-      </c>
-      <c r="F17" s="13">
-        <v>3.3445252600000002</v>
-      </c>
-      <c r="G17" s="13">
-        <v>0.14746363000000001</v>
-      </c>
-      <c r="H17" s="13">
-        <v>0.81596539999999995</v>
-      </c>
-      <c r="I17" s="13">
-        <v>0.16712543999999999</v>
-      </c>
-      <c r="J17" s="13">
-        <v>3.1037012399999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" s="13">
-        <v>9252</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="16">
-        <v>79.310528779999999</v>
-      </c>
-      <c r="E18" s="13">
-        <v>13.371123620000001</v>
-      </c>
-      <c r="F18" s="13">
-        <v>1.5614517999999999</v>
-      </c>
-      <c r="G18" s="13">
-        <v>0.28340964000000002</v>
-      </c>
-      <c r="H18" s="13">
-        <v>0.42872453999999999</v>
-      </c>
-      <c r="I18" s="13">
-        <v>0</v>
-      </c>
-      <c r="J18" s="13">
-        <v>2.3310039499999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="13">
-        <v>9905</v>
-      </c>
-      <c r="C19" s="13">
-        <v>1</v>
-      </c>
-      <c r="D19" s="16">
-        <v>79.172330840000001</v>
-      </c>
-      <c r="E19" s="13">
-        <v>9.5245537599999999</v>
-      </c>
-      <c r="F19" s="13">
-        <v>4.5849039400000002</v>
-      </c>
-      <c r="G19" s="13">
-        <v>0.11954573</v>
-      </c>
-      <c r="H19" s="13">
-        <v>0</v>
-      </c>
-      <c r="I19" s="13">
-        <v>6.0984910000000003E-2</v>
-      </c>
-      <c r="J19" s="13">
-        <v>1.45151732</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" s="13">
-        <v>9546</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="16">
-        <v>78.422527669999994</v>
-      </c>
-      <c r="E20" s="13">
-        <v>6.99120893</v>
-      </c>
-      <c r="F20" s="13">
-        <v>8.7573062000000004</v>
-      </c>
-      <c r="G20" s="13">
-        <v>0.37057767000000003</v>
-      </c>
-      <c r="H20" s="13">
-        <v>0</v>
-      </c>
-      <c r="I20" s="13">
-        <v>0</v>
-      </c>
-      <c r="J20" s="13">
-        <v>2.3967468699999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="13">
-        <v>5764</v>
-      </c>
-      <c r="C21" s="13">
-        <v>1</v>
-      </c>
-      <c r="D21" s="16">
-        <v>77.53460115</v>
-      </c>
-      <c r="E21" s="13">
-        <v>8.77312856</v>
-      </c>
-      <c r="F21" s="13">
-        <v>4.8610918400000003</v>
-      </c>
-      <c r="G21" s="13">
-        <v>0.63244794000000004</v>
-      </c>
-      <c r="H21" s="13">
-        <v>0</v>
-      </c>
-      <c r="I21" s="13">
-        <v>0.13042446999999999</v>
-      </c>
-      <c r="J21" s="13">
-        <v>5.0478187300000004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" s="13">
-        <v>3677</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="16">
-        <v>77.318466139999998</v>
-      </c>
-      <c r="E22" s="13">
-        <v>11.25917868</v>
-      </c>
-      <c r="F22" s="13">
-        <v>8.2676094599999992</v>
-      </c>
-      <c r="G22" s="13">
-        <v>0</v>
-      </c>
-      <c r="H22" s="13">
-        <v>0</v>
-      </c>
-      <c r="I22" s="13">
-        <v>0</v>
-      </c>
-      <c r="J22" s="13">
-        <v>0.78868643000000005</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="13">
-        <v>16304</v>
-      </c>
-      <c r="C23" s="13">
-        <v>1</v>
-      </c>
-      <c r="D23" s="16">
-        <v>76.702368640000003</v>
-      </c>
-      <c r="E23" s="13">
-        <v>11.018767609999999</v>
-      </c>
-      <c r="F23" s="13">
-        <v>3.9488732899999999</v>
-      </c>
-      <c r="G23" s="13">
-        <v>0.46652716</v>
-      </c>
-      <c r="H23" s="13">
-        <v>0</v>
-      </c>
-      <c r="I23" s="13">
-        <v>0</v>
-      </c>
-      <c r="J23" s="13">
-        <v>4.0135005399999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="13">
-        <v>2256</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="16">
-        <v>74.689716309999994</v>
-      </c>
-      <c r="E24" s="13">
-        <v>9.5301418400000006</v>
-      </c>
-      <c r="F24" s="13">
-        <v>8.5549645400000003</v>
-      </c>
-      <c r="G24" s="13">
-        <v>0</v>
-      </c>
-      <c r="H24" s="13">
-        <v>0.7535461</v>
-      </c>
-      <c r="I24" s="13">
-        <v>0</v>
-      </c>
-      <c r="J24" s="13">
-        <v>1.3741134800000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B25" s="13">
-        <v>6754</v>
-      </c>
-      <c r="C25" s="13">
-        <v>1</v>
-      </c>
-      <c r="D25" s="16">
-        <v>74.666927670000007</v>
-      </c>
-      <c r="E25" s="13">
-        <v>15.05562815</v>
-      </c>
-      <c r="F25" s="13">
-        <v>6.05977926</v>
-      </c>
-      <c r="G25" s="13">
-        <v>0.38769708000000003</v>
-      </c>
-      <c r="H25" s="13">
-        <v>0</v>
-      </c>
-      <c r="I25" s="13">
-        <v>0</v>
-      </c>
-      <c r="J25" s="13">
-        <v>1.80914105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" s="13">
-        <v>2780</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="16">
-        <v>74.460431650000004</v>
-      </c>
-      <c r="E26" s="13">
-        <v>17.841726619999999</v>
-      </c>
-      <c r="F26" s="13">
-        <v>1.33093525</v>
-      </c>
-      <c r="G26" s="13">
-        <v>0.28776977999999998</v>
-      </c>
-      <c r="H26" s="13">
-        <v>0</v>
-      </c>
-      <c r="I26" s="13">
-        <v>0</v>
-      </c>
-      <c r="J26" s="13">
-        <v>1.65467626</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="13">
-        <v>8156</v>
-      </c>
-      <c r="C27" s="13">
-        <v>2</v>
-      </c>
-      <c r="D27" s="16">
-        <v>74.328767279999994</v>
-      </c>
-      <c r="E27" s="13">
-        <v>12.61747388</v>
-      </c>
-      <c r="F27" s="13">
-        <v>2.0137558900000001</v>
-      </c>
-      <c r="G27" s="13">
-        <v>0.57335460000000005</v>
-      </c>
-      <c r="H27" s="13">
-        <v>0</v>
-      </c>
-      <c r="I27" s="13">
-        <v>0</v>
-      </c>
-      <c r="J27" s="13">
-        <v>4.2564885300000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="13">
-        <v>16804</v>
-      </c>
-      <c r="C28" s="13">
-        <v>7</v>
-      </c>
-      <c r="D28" s="16">
-        <v>74.129911930000006</v>
-      </c>
-      <c r="E28" s="13">
-        <v>10.502160719999999</v>
-      </c>
-      <c r="F28" s="13">
-        <v>7.72648022</v>
-      </c>
-      <c r="G28" s="13">
-        <v>0.16232337999999999</v>
-      </c>
-      <c r="H28" s="13">
-        <v>0</v>
-      </c>
-      <c r="I28" s="13">
-        <v>0.15384614999999999</v>
-      </c>
-      <c r="J28" s="13">
-        <v>2.0594155399999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="13">
-        <v>26922</v>
-      </c>
-      <c r="C29" s="13">
-        <v>3</v>
-      </c>
-      <c r="D29" s="16">
-        <v>73.108153560000005</v>
-      </c>
-      <c r="E29" s="13">
-        <v>9.6703741500000007</v>
-      </c>
-      <c r="F29" s="13">
-        <v>6.3931109900000003</v>
-      </c>
-      <c r="G29" s="13">
-        <v>0.70133703000000003</v>
-      </c>
-      <c r="H29" s="13">
-        <v>7.1150389999999994E-2</v>
-      </c>
-      <c r="I29" s="13">
-        <v>0.21370670999999999</v>
-      </c>
-      <c r="J29" s="13">
-        <v>4.6789752299999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="13">
-        <v>9360</v>
-      </c>
-      <c r="C30" s="13">
-        <v>1</v>
-      </c>
-      <c r="D30" s="16">
-        <v>71.553851760000001</v>
-      </c>
-      <c r="E30" s="13">
-        <v>22.979029050000001</v>
-      </c>
-      <c r="F30" s="13">
-        <v>1.0107264600000001</v>
-      </c>
-      <c r="G30" s="13">
-        <v>0.17187052</v>
-      </c>
-      <c r="H30" s="13">
-        <v>0</v>
-      </c>
-      <c r="I30" s="13">
-        <v>0.12890288999999999</v>
-      </c>
-      <c r="J30" s="13">
-        <v>2.7334998000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" s="13">
-        <v>8976</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="16">
-        <v>71.512923349999994</v>
-      </c>
-      <c r="E31" s="13">
-        <v>13.435828880000001</v>
-      </c>
-      <c r="F31" s="13">
-        <v>5.2139037400000001</v>
-      </c>
-      <c r="G31" s="13">
-        <v>1.5040107</v>
-      </c>
-      <c r="H31" s="13">
-        <v>0</v>
-      </c>
-      <c r="I31" s="13">
-        <v>0</v>
-      </c>
-      <c r="J31" s="13">
-        <v>2.1836007099999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" s="13">
-        <v>4491</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="16">
-        <v>71.342685369999998</v>
-      </c>
-      <c r="E32" s="13">
-        <v>15.69806279</v>
-      </c>
-      <c r="F32" s="13">
-        <v>2.7165442</v>
-      </c>
-      <c r="G32" s="13">
-        <v>0.62346915999999997</v>
-      </c>
-      <c r="H32" s="13">
-        <v>0</v>
-      </c>
-      <c r="I32" s="13">
-        <v>0.48986863000000003</v>
-      </c>
-      <c r="J32" s="13">
-        <v>5.5666889299999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="13">
-        <v>8189</v>
-      </c>
-      <c r="C33" s="13">
-        <v>5</v>
-      </c>
-      <c r="D33" s="16">
-        <v>71.073509630000004</v>
-      </c>
-      <c r="E33" s="13">
-        <v>20.16276212</v>
-      </c>
-      <c r="F33" s="13">
-        <v>5.0754139699999996</v>
-      </c>
-      <c r="G33" s="13">
-        <v>0.35797536000000002</v>
-      </c>
-      <c r="H33" s="13">
-        <v>0.16032982000000001</v>
-      </c>
-      <c r="I33" s="13">
-        <v>0</v>
-      </c>
-      <c r="J33" s="13">
-        <v>1.4798646200000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B34" s="13">
-        <v>3927</v>
-      </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="16">
-        <v>69.951617010000007</v>
-      </c>
-      <c r="E34" s="13">
-        <v>16.755793229999998</v>
-      </c>
-      <c r="F34" s="13">
-        <v>6.0351413300000001</v>
-      </c>
-      <c r="G34" s="13">
-        <v>0.20371785000000001</v>
-      </c>
-      <c r="H34" s="13">
-        <v>0</v>
-      </c>
-      <c r="I34" s="13">
-        <v>0</v>
-      </c>
-      <c r="J34" s="13">
-        <v>3.7942449699999998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B35" s="13">
-        <v>778</v>
-      </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="16">
-        <v>69.665809769999996</v>
-      </c>
-      <c r="E35" s="13">
-        <v>22.622107969999998</v>
-      </c>
-      <c r="F35" s="13">
-        <v>1.41388175</v>
-      </c>
-      <c r="G35" s="13">
-        <v>1.02827764</v>
-      </c>
-      <c r="H35" s="13">
-        <v>0</v>
-      </c>
-      <c r="I35" s="13">
-        <v>1.28534704</v>
-      </c>
-      <c r="J35" s="13">
-        <v>3.9845758400000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="13">
-        <v>12141</v>
-      </c>
-      <c r="C36" s="13">
-        <v>1</v>
-      </c>
-      <c r="D36" s="16">
-        <v>69.595246090000003</v>
-      </c>
-      <c r="E36" s="13">
-        <v>18.959707550000001</v>
-      </c>
-      <c r="F36" s="13">
-        <v>0.68307136000000002</v>
-      </c>
-      <c r="G36" s="13">
-        <v>0.15971439000000001</v>
-      </c>
-      <c r="H36" s="13">
-        <v>0</v>
-      </c>
-      <c r="I36" s="13">
-        <v>0</v>
-      </c>
-      <c r="J36" s="13">
-        <v>1.9032469999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B37" s="13">
-        <v>14437</v>
-      </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="16">
-        <v>69.459544600000001</v>
-      </c>
-      <c r="E37" s="13">
-        <v>15.43463809</v>
-      </c>
-      <c r="F37" s="13">
-        <v>7.9825429799999998</v>
-      </c>
-      <c r="G37" s="13">
-        <v>0</v>
-      </c>
-      <c r="H37" s="13">
-        <v>0.33557047000000001</v>
-      </c>
-      <c r="I37" s="13">
-        <v>0.72910843999999997</v>
-      </c>
-      <c r="J37" s="13">
-        <v>2.24705888</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="13">
-        <v>3032</v>
       </c>
       <c r="C38" s="13">
         <v>1</v>
       </c>
       <c r="D38" s="16">
-        <v>69.030343009999996</v>
+        <v>84.963503650000007</v>
       </c>
       <c r="E38" s="13">
-        <v>24.472295509999999</v>
+        <v>5.4160583899999999</v>
       </c>
       <c r="F38" s="13">
-        <v>1.3522427400000001</v>
+        <v>2.1313868600000001</v>
       </c>
       <c r="G38" s="13">
         <v>0</v>
@@ -6683,33 +6725,33 @@
         <v>0</v>
       </c>
       <c r="I38" s="13">
-        <v>0</v>
+        <v>0.62773723000000003</v>
       </c>
       <c r="J38" s="13">
-        <v>3.3641160999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>2.0875912400000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B39" s="13">
-        <v>10549</v>
+        <v>7500</v>
       </c>
       <c r="C39" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" s="16">
-        <v>68.943406690000003</v>
+        <v>82.92</v>
       </c>
       <c r="E39" s="13">
-        <v>25.19154172</v>
+        <v>5.3406659999999997</v>
       </c>
       <c r="F39" s="13">
-        <v>0.95408101000000001</v>
+        <v>0.94066660000000002</v>
       </c>
       <c r="G39" s="13">
-        <v>1.8520144599999999</v>
+        <v>0.17033329999999999</v>
       </c>
       <c r="H39" s="13">
         <v>0</v>
@@ -6718,60 +6760,62 @@
         <v>0</v>
       </c>
       <c r="J39" s="13">
-        <v>1.10434783</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>1.3406659999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B40" s="13">
-        <v>5827</v>
+        <v>12061</v>
       </c>
       <c r="C40" s="13">
         <v>1</v>
       </c>
       <c r="D40" s="16">
-        <v>67.118585890000006</v>
+        <v>81.962919600000006</v>
       </c>
       <c r="E40" s="13">
-        <v>19.838681999999999</v>
+        <v>9.8366632599999999</v>
       </c>
       <c r="F40" s="13">
-        <v>8.2203535300000006</v>
+        <v>1.9234034099999999</v>
       </c>
       <c r="G40" s="13">
-        <v>0.65213661000000001</v>
+        <v>0.10673235</v>
       </c>
       <c r="H40" s="13">
         <v>0</v>
       </c>
       <c r="I40" s="13">
-        <v>8.5807449999999993E-2</v>
+        <v>0.11103709</v>
       </c>
       <c r="J40" s="13">
-        <v>2.19667067</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>2.4631474</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="B41" s="13">
-        <v>3490</v>
-      </c>
-      <c r="C41" s="14"/>
+        <v>11475</v>
+      </c>
+      <c r="C41" s="13">
+        <v>1</v>
+      </c>
       <c r="D41" s="16">
-        <v>66.905444130000006</v>
+        <v>79.875162290000006</v>
       </c>
       <c r="E41" s="13">
-        <v>27.621776499999999</v>
+        <v>11.69096141</v>
       </c>
       <c r="F41" s="13">
-        <v>0.37249283999999999</v>
+        <v>2.6809590000000001</v>
       </c>
       <c r="G41" s="13">
-        <v>0</v>
+        <v>0.10368065999999999</v>
       </c>
       <c r="H41" s="13">
         <v>0</v>
@@ -6780,126 +6824,126 @@
         <v>0</v>
       </c>
       <c r="J41" s="13">
-        <v>0.51575930999999997</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>3.55764937</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B42" s="13">
-        <v>9225</v>
+        <v>9905</v>
       </c>
       <c r="C42" s="13">
         <v>1</v>
       </c>
       <c r="D42" s="16">
-        <v>66.203090880000005</v>
+        <v>79.172330840000001</v>
       </c>
       <c r="E42" s="13">
-        <v>27.18336012</v>
+        <v>9.5245537599999999</v>
       </c>
       <c r="F42" s="13">
-        <v>1.7674381100000001</v>
+        <v>4.5849039400000002</v>
       </c>
       <c r="G42" s="13">
-        <v>0.81455142000000003</v>
+        <v>0.11954573</v>
       </c>
       <c r="H42" s="13">
-        <v>0.16860563000000001</v>
+        <v>0</v>
       </c>
       <c r="I42" s="13">
-        <v>1.9900500000000002E-2</v>
+        <v>6.0984910000000003E-2</v>
       </c>
       <c r="J42" s="13">
-        <v>1.2306016500000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>1.45151732</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B43" s="13">
-        <v>6568</v>
+        <v>5764</v>
       </c>
       <c r="C43" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D43" s="16">
-        <v>65.255785630000005</v>
+        <v>77.53460115</v>
       </c>
       <c r="E43" s="13">
-        <v>23.858099880000001</v>
+        <v>8.77312856</v>
       </c>
       <c r="F43" s="13">
-        <v>3.98903776</v>
+        <v>4.8610918400000003</v>
       </c>
       <c r="G43" s="13">
-        <v>1.3246041399999999</v>
+        <v>0.63244794000000004</v>
       </c>
       <c r="H43" s="13">
         <v>0</v>
       </c>
       <c r="I43" s="13">
-        <v>0</v>
+        <v>0.13042446999999999</v>
       </c>
       <c r="J43" s="13">
-        <v>3.2125456799999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>5.0478187300000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B44" s="13">
-        <v>5339</v>
+        <v>16304</v>
       </c>
       <c r="C44" s="13">
         <v>1</v>
       </c>
       <c r="D44" s="16">
-        <v>64.985211840000005</v>
+        <v>76.702368640000003</v>
       </c>
       <c r="E44" s="13">
-        <v>15.609143530000001</v>
+        <v>11.018767609999999</v>
       </c>
       <c r="F44" s="13">
-        <v>12.307782100000001</v>
+        <v>3.9488732899999999</v>
       </c>
       <c r="G44" s="13">
-        <v>0.13872798</v>
+        <v>0.46652716</v>
       </c>
       <c r="H44" s="13">
         <v>0</v>
       </c>
       <c r="I44" s="13">
-        <v>0.93818984999999999</v>
+        <v>0</v>
       </c>
       <c r="J44" s="13">
-        <v>3.7109579199999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>4.0135005399999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="B45" s="13">
-        <v>4868</v>
+        <v>6754</v>
       </c>
       <c r="C45" s="13">
         <v>1</v>
       </c>
       <c r="D45" s="16">
-        <v>63.845521769999998</v>
+        <v>74.666927670000007</v>
       </c>
       <c r="E45" s="13">
-        <v>30.977814299999999</v>
+        <v>15.05562815</v>
       </c>
       <c r="F45" s="13">
-        <v>1.1709120799999999</v>
+        <v>6.05977926</v>
       </c>
       <c r="G45" s="13">
-        <v>0.16433854000000001</v>
+        <v>0.38769708000000003</v>
       </c>
       <c r="H45" s="13">
         <v>0</v>
@@ -6908,94 +6952,94 @@
         <v>0</v>
       </c>
       <c r="J45" s="13">
-        <v>2.1569433</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>1.80914105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B46" s="13">
-        <v>20182</v>
+        <v>9360</v>
       </c>
       <c r="C46" s="13">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D46" s="16">
-        <v>63.147616769999999</v>
+        <v>71.553851760000001</v>
       </c>
       <c r="E46" s="13">
-        <v>14.93000853</v>
+        <v>22.979029050000001</v>
       </c>
       <c r="F46" s="13">
-        <v>15.06085729</v>
+        <v>1.0107264600000001</v>
       </c>
       <c r="G46" s="13">
-        <v>2.4414060000000001E-2</v>
+        <v>0.17187052</v>
       </c>
       <c r="H46" s="13">
-        <v>0.18563170000000001</v>
+        <v>0</v>
       </c>
       <c r="I46" s="13">
-        <v>0.10774203</v>
+        <v>0.12890288999999999</v>
       </c>
       <c r="J46" s="13">
-        <v>2.4188647699999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.25">
+        <v>2.7334998000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B47" s="13">
-        <v>14793</v>
+        <v>12141</v>
       </c>
       <c r="C47" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" s="16">
-        <v>61.389809589999999</v>
+        <v>69.595246090000003</v>
       </c>
       <c r="E47" s="13">
-        <v>17.71622236</v>
+        <v>18.959707550000001</v>
       </c>
       <c r="F47" s="13">
-        <v>11.478502219999999</v>
+        <v>0.68307136000000002</v>
       </c>
       <c r="G47" s="13">
-        <v>0.35663929999999999</v>
+        <v>0.15971439000000001</v>
       </c>
       <c r="H47" s="13">
         <v>0</v>
       </c>
       <c r="I47" s="13">
-        <v>0.69714354000000001</v>
+        <v>0</v>
       </c>
       <c r="J47" s="13">
-        <v>3.5124470300000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>1.9032469999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B48" s="13">
-        <v>18924</v>
+        <v>3032</v>
       </c>
       <c r="C48" s="13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D48" s="16">
-        <v>59.220125779999996</v>
+        <v>69.030343009999996</v>
       </c>
       <c r="E48" s="13">
-        <v>15.839333140000001</v>
+        <v>24.472295509999999</v>
       </c>
       <c r="F48" s="13">
-        <v>16.08179668</v>
+        <v>1.3522427400000001</v>
       </c>
       <c r="G48" s="13">
-        <v>0.43215166999999999</v>
+        <v>0</v>
       </c>
       <c r="H48" s="13">
         <v>0</v>
@@ -7004,124 +7048,126 @@
         <v>0</v>
       </c>
       <c r="J48" s="13">
-        <v>6.9466050700000004</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>3.3641160999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B49" s="13">
-        <v>8725</v>
+        <v>5827</v>
       </c>
       <c r="C49" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D49" s="16">
-        <v>57.050751419999997</v>
+        <v>67.118585890000006</v>
       </c>
       <c r="E49" s="13">
-        <v>30.83701301</v>
+        <v>19.838681999999999</v>
       </c>
       <c r="F49" s="13">
-        <v>4.99277573</v>
+        <v>8.2203535300000006</v>
       </c>
       <c r="G49" s="13">
-        <v>0.32107882999999998</v>
+        <v>0.65213661000000001</v>
       </c>
       <c r="H49" s="13">
         <v>0</v>
       </c>
       <c r="I49" s="13">
-        <v>0</v>
+        <v>8.5807449999999993E-2</v>
       </c>
       <c r="J49" s="13">
-        <v>0.62099358999999998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>2.19667067</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B50" s="13">
-        <v>10351</v>
+        <v>9225</v>
       </c>
       <c r="C50" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D50" s="16">
-        <v>55.358904320000001</v>
+        <v>66.203090880000005</v>
       </c>
       <c r="E50" s="13">
-        <v>10.09512093</v>
+        <v>27.18336012</v>
       </c>
       <c r="F50" s="13">
-        <v>27.603057539999998</v>
+        <v>1.7674381100000001</v>
       </c>
       <c r="G50" s="13">
-        <v>0</v>
+        <v>0.81455142000000003</v>
       </c>
       <c r="H50" s="13">
-        <v>0.37546933999999998</v>
+        <v>0.16860563000000001</v>
       </c>
       <c r="I50" s="13">
-        <v>1.1557712600000001</v>
+        <v>1.9900500000000002E-2</v>
       </c>
       <c r="J50" s="13">
-        <v>4.0470050300000002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>1.2306016500000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B51" s="13">
-        <v>5528</v>
+        <v>5339</v>
       </c>
       <c r="C51" s="13">
         <v>1</v>
       </c>
       <c r="D51" s="16">
-        <v>53.364688860000001</v>
+        <v>64.985211840000005</v>
       </c>
       <c r="E51" s="13">
-        <v>18.885672939999999</v>
+        <v>15.609143530000001</v>
       </c>
       <c r="F51" s="13">
-        <v>22.105643990000001</v>
+        <v>12.307782100000001</v>
       </c>
       <c r="G51" s="13">
-        <v>0.63314037999999995</v>
+        <v>0.13872798</v>
       </c>
       <c r="H51" s="13">
         <v>0</v>
       </c>
       <c r="I51" s="13">
-        <v>0</v>
+        <v>0.93818984999999999</v>
       </c>
       <c r="J51" s="13">
-        <v>3.3285094100000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>3.7109579199999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="B52" s="13">
-        <v>3530</v>
-      </c>
-      <c r="C52" s="14"/>
+        <v>4868</v>
+      </c>
+      <c r="C52" s="13">
+        <v>1</v>
+      </c>
       <c r="D52" s="16">
-        <v>52.917847029999997</v>
+        <v>63.845521769999998</v>
       </c>
       <c r="E52" s="13">
-        <v>8.9801699700000004</v>
+        <v>30.977814299999999</v>
       </c>
       <c r="F52" s="13">
-        <v>33.626062320000003</v>
+        <v>1.1709120799999999</v>
       </c>
       <c r="G52" s="13">
-        <v>0</v>
+        <v>0.16433854000000001</v>
       </c>
       <c r="H52" s="13">
         <v>0</v>
@@ -7130,286 +7176,274 @@
         <v>0</v>
       </c>
       <c r="J52" s="13">
-        <v>4.4759206799999998</v>
+        <v>2.1569433</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B53" s="13">
-        <v>14477</v>
+        <v>5528</v>
       </c>
       <c r="C53" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D53" s="16">
-        <v>49.008641240000003</v>
+        <v>53.364688860000001</v>
       </c>
       <c r="E53" s="13">
-        <v>20.682409419999999</v>
+        <v>18.885672939999999</v>
       </c>
       <c r="F53" s="13">
-        <v>20.14705614</v>
+        <v>22.105643990000001</v>
       </c>
       <c r="G53" s="13">
-        <v>0</v>
+        <v>0.63314037999999995</v>
       </c>
       <c r="H53" s="13">
         <v>0</v>
       </c>
       <c r="I53" s="13">
-        <v>0.1070091</v>
+        <v>0</v>
       </c>
       <c r="J53" s="13">
-        <v>4.6100098000000003</v>
+        <v>3.3285094100000001</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B54" s="13">
-        <v>10091</v>
+        <v>6916</v>
       </c>
       <c r="C54" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D54" s="16">
-        <v>46.262175130000003</v>
+        <v>38.148623469999997</v>
       </c>
       <c r="E54" s="13">
-        <v>44.710295160000001</v>
+        <v>44.309389029999998</v>
       </c>
       <c r="F54" s="13">
-        <v>4.5666095999999996</v>
+        <v>12.9224242</v>
       </c>
       <c r="G54" s="13">
-        <v>0.61068685</v>
+        <v>0.48656283</v>
       </c>
       <c r="H54" s="13">
-        <v>9.1529369999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="I54" s="13">
-        <v>0.53681135000000002</v>
+        <v>0.33613444999999997</v>
       </c>
       <c r="J54" s="13">
-        <v>1.3789364200000001</v>
+        <v>1.96283534</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B55" s="13">
-        <v>3820</v>
+        <v>6145</v>
       </c>
       <c r="C55" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55" s="16">
-        <v>45.811518319999998</v>
+        <v>22.245728230000001</v>
       </c>
       <c r="E55" s="13">
-        <v>49.712041880000001</v>
+        <v>72.416598859999993</v>
       </c>
       <c r="F55" s="13">
-        <v>1.38743456</v>
+        <v>2.9454841300000001</v>
       </c>
       <c r="G55" s="13">
-        <v>0.23560208999999999</v>
+        <v>0.40683482999999998</v>
       </c>
       <c r="H55" s="13">
-        <v>0.54973822000000006</v>
+        <v>0</v>
       </c>
       <c r="I55" s="13">
         <v>0</v>
       </c>
       <c r="J55" s="13">
-        <v>2.0942408399999999</v>
+        <v>1.02522376</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="B56" s="13">
-        <v>9315</v>
-      </c>
-      <c r="C56" s="13">
-        <v>7</v>
-      </c>
+        <v>3032</v>
+      </c>
+      <c r="C56" s="14"/>
       <c r="D56" s="16">
-        <v>40.254610460000002</v>
+        <v>92.348284960000001</v>
       </c>
       <c r="E56" s="13">
-        <v>49.127874570000003</v>
+        <v>3.1662269099999998</v>
       </c>
       <c r="F56" s="13">
-        <v>5.79791452</v>
+        <v>0.95646438</v>
       </c>
       <c r="G56" s="13">
-        <v>0.37056316</v>
+        <v>1.5171504</v>
       </c>
       <c r="H56" s="13">
-        <v>0.14586372</v>
+        <v>0</v>
       </c>
       <c r="I56" s="13">
-        <v>0.20837675</v>
+        <v>0</v>
       </c>
       <c r="J56" s="13">
-        <v>2.58463529</v>
+        <v>1.6490765199999999</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="B57" s="13">
-        <v>6916</v>
-      </c>
-      <c r="C57" s="13">
-        <v>1</v>
-      </c>
+        <v>7514</v>
+      </c>
+      <c r="C57" s="14"/>
       <c r="D57" s="16">
-        <v>38.148623469999997</v>
+        <v>89.662234740000002</v>
       </c>
       <c r="E57" s="13">
-        <v>44.309389029999998</v>
+        <v>6.2040878099999999</v>
       </c>
       <c r="F57" s="13">
-        <v>12.9224242</v>
+        <v>0.67343558000000003</v>
       </c>
       <c r="G57" s="13">
-        <v>0.48656283</v>
+        <v>0.51621384000000003</v>
       </c>
       <c r="H57" s="13">
-        <v>0</v>
+        <v>0.11286682000000001</v>
       </c>
       <c r="I57" s="13">
-        <v>0.33613444999999997</v>
+        <v>0.20692250000000001</v>
       </c>
       <c r="J57" s="13">
-        <v>1.96283534</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+        <v>1.1843035799999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="B58" s="13">
-        <v>9638</v>
-      </c>
-      <c r="C58" s="13">
-        <v>6</v>
-      </c>
+        <v>4204</v>
+      </c>
+      <c r="C58" s="14"/>
       <c r="D58" s="16">
-        <v>37.98524046</v>
+        <v>87.274024740000002</v>
       </c>
       <c r="E58" s="13">
-        <v>48.961950420000001</v>
+        <v>5.0190295000000003</v>
       </c>
       <c r="F58" s="13">
-        <v>2.8946930599999998</v>
+        <v>3.3063748799999999</v>
       </c>
       <c r="G58" s="13">
-        <v>0.25384030000000002</v>
+        <v>0</v>
       </c>
       <c r="H58" s="13">
-        <v>3.8323683499999999</v>
+        <v>0</v>
       </c>
       <c r="I58" s="13">
-        <v>0</v>
+        <v>0.85632730999999995</v>
       </c>
       <c r="J58" s="13">
-        <v>0.38954638000000003</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+        <v>1.4509990500000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="B59" s="13">
-        <v>13338</v>
-      </c>
-      <c r="C59" s="13">
-        <v>3</v>
-      </c>
+        <v>5874</v>
+      </c>
+      <c r="C59" s="14"/>
       <c r="D59" s="16">
-        <v>37.952129839999998</v>
+        <v>86.550902280000003</v>
       </c>
       <c r="E59" s="13">
-        <v>54.005394330000001</v>
+        <v>8.1716036800000005</v>
       </c>
       <c r="F59" s="13">
-        <v>2.3239734699999999</v>
+        <v>0.83418453999999997</v>
       </c>
       <c r="G59" s="13">
-        <v>0.11771223</v>
+        <v>0</v>
       </c>
       <c r="H59" s="13">
         <v>0</v>
       </c>
       <c r="I59" s="13">
-        <v>5.7217589999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="J59" s="13">
-        <v>0.82654950999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3.7112699999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="B60" s="13">
-        <v>4552</v>
-      </c>
-      <c r="C60" s="13">
-        <v>2</v>
-      </c>
+        <v>9309</v>
+      </c>
+      <c r="C60" s="14"/>
       <c r="D60" s="16">
-        <v>37.214411249999998</v>
+        <v>86.016148540000003</v>
       </c>
       <c r="E60" s="13">
-        <v>46.550966610000003</v>
+        <v>5.9513565599999998</v>
       </c>
       <c r="F60" s="13">
-        <v>13.818101929999999</v>
+        <v>2.5964397400000001</v>
       </c>
       <c r="G60" s="13">
-        <v>0.39543057999999998</v>
+        <v>0.41956019</v>
       </c>
       <c r="H60" s="13">
-        <v>0</v>
+        <v>0.28190671</v>
       </c>
       <c r="I60" s="13">
-        <v>2.1968370000000001E-2</v>
+        <v>8.5426300000000007E-3</v>
       </c>
       <c r="J60" s="13">
-        <v>1.8892794399999999</v>
+        <v>2.8994138199999999</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="B61" s="13">
-        <v>11040</v>
-      </c>
-      <c r="C61" s="13">
-        <v>5</v>
-      </c>
+        <v>6045</v>
+      </c>
+      <c r="C61" s="14"/>
       <c r="D61" s="16">
-        <v>35.858793249999998</v>
+        <v>84.504003890000007</v>
       </c>
       <c r="E61" s="13">
-        <v>27.961267450000001</v>
+        <v>5.8096654699999997</v>
       </c>
       <c r="F61" s="13">
-        <v>26.4967653</v>
+        <v>4.2295315100000002</v>
       </c>
       <c r="G61" s="13">
-        <v>0.52636073999999999</v>
+        <v>0</v>
       </c>
       <c r="H61" s="13">
         <v>0</v>
@@ -7418,188 +7452,178 @@
         <v>0</v>
       </c>
       <c r="J61" s="13">
-        <v>3.3685574599999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.93515192</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B62" s="13">
-        <v>1708</v>
+        <v>7798</v>
       </c>
       <c r="C62" s="14"/>
       <c r="D62" s="16">
-        <v>35.304449650000002</v>
+        <v>83.872447480000005</v>
       </c>
       <c r="E62" s="13">
-        <v>28.747072599999999</v>
+        <v>7.5072642299999996</v>
       </c>
       <c r="F62" s="13">
-        <v>27.16627635</v>
+        <v>1.0545748500000001</v>
       </c>
       <c r="G62" s="13">
-        <v>0.64402809999999999</v>
+        <v>0</v>
       </c>
       <c r="H62" s="13">
         <v>0</v>
       </c>
       <c r="I62" s="13">
-        <v>0</v>
+        <v>0.34206181000000002</v>
       </c>
       <c r="J62" s="13">
-        <v>7.0257611200000003</v>
+        <v>4.0642885700000004</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="B63" s="13">
-        <v>5228</v>
-      </c>
-      <c r="C63" s="13">
-        <v>7</v>
-      </c>
+        <v>9524</v>
+      </c>
+      <c r="C63" s="14"/>
       <c r="D63" s="16">
-        <v>34.64039786</v>
+        <v>82.612464180000003</v>
       </c>
       <c r="E63" s="13">
-        <v>35.78806427</v>
+        <v>6.8649052399999997</v>
       </c>
       <c r="F63" s="13">
-        <v>16.239479719999999</v>
+        <v>3.8011397800000002</v>
       </c>
       <c r="G63" s="13">
-        <v>0</v>
+        <v>0.45070422999999998</v>
       </c>
       <c r="H63" s="13">
-        <v>0</v>
+        <v>0.22624433999999999</v>
       </c>
       <c r="I63" s="13">
-        <v>0</v>
+        <v>0.39295069999999999</v>
       </c>
       <c r="J63" s="13">
-        <v>1.53022188</v>
+        <v>3.2154156999999999</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="B64" s="13">
-        <v>4377</v>
-      </c>
-      <c r="C64" s="13">
-        <v>5</v>
-      </c>
+        <v>3525</v>
+      </c>
+      <c r="C64" s="14"/>
       <c r="D64" s="16">
-        <v>33.196253140000003</v>
+        <v>79.829787229999994</v>
       </c>
       <c r="E64" s="13">
-        <v>58.281928260000001</v>
+        <v>14.0141844</v>
       </c>
       <c r="F64" s="13">
-        <v>4.1580991599999999</v>
+        <v>0</v>
       </c>
       <c r="G64" s="13">
-        <v>0.22846699000000001</v>
+        <v>0</v>
       </c>
       <c r="H64" s="13">
-        <v>0</v>
+        <v>0.28368794000000003</v>
       </c>
       <c r="I64" s="13">
-        <v>0.41124058000000002</v>
+        <v>0</v>
       </c>
       <c r="J64" s="13">
-        <v>2.51313685</v>
+        <v>3.3475177299999999</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="B65" s="13">
-        <v>4862</v>
-      </c>
-      <c r="C65" s="13">
-        <v>4</v>
-      </c>
+        <v>7748</v>
+      </c>
+      <c r="C65" s="14"/>
       <c r="D65" s="16">
-        <v>29.658576719999999</v>
+        <v>79.356990640000006</v>
       </c>
       <c r="E65" s="13">
-        <v>49.83545866</v>
+        <v>11.54043761</v>
       </c>
       <c r="F65" s="13">
-        <v>14.47963801</v>
+        <v>3.3445252600000002</v>
       </c>
       <c r="G65" s="13">
-        <v>0.26737968000000001</v>
+        <v>0.14746363000000001</v>
       </c>
       <c r="H65" s="13">
-        <v>0.28794734999999999</v>
+        <v>0.81596539999999995</v>
       </c>
       <c r="I65" s="13">
-        <v>0</v>
+        <v>0.16712543999999999</v>
       </c>
       <c r="J65" s="13">
-        <v>3.9901275200000001</v>
+        <v>3.1037012399999999</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="B66" s="13">
-        <v>9643</v>
-      </c>
-      <c r="C66" s="13">
-        <v>3</v>
-      </c>
+        <v>9252</v>
+      </c>
+      <c r="C66" s="14"/>
       <c r="D66" s="16">
-        <v>28.097137109999998</v>
+        <v>79.310528779999999</v>
       </c>
       <c r="E66" s="13">
-        <v>27.08039295</v>
+        <v>13.371123620000001</v>
       </c>
       <c r="F66" s="13">
-        <v>36.508258210000001</v>
+        <v>1.5614517999999999</v>
       </c>
       <c r="G66" s="13">
-        <v>0.50119851999999998</v>
+        <v>0.28340964000000002</v>
       </c>
       <c r="H66" s="13">
-        <v>0</v>
+        <v>0.42872453999999999</v>
       </c>
       <c r="I66" s="13">
-        <v>5.9358920000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="J66" s="13">
-        <v>6.6663602500000003</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2.3310039499999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="B67" s="13">
-        <v>9846</v>
-      </c>
-      <c r="C67" s="13">
-        <v>9</v>
-      </c>
+        <v>9546</v>
+      </c>
+      <c r="C67" s="14"/>
       <c r="D67" s="16">
-        <v>27.148408329999999</v>
+        <v>78.422527669999994</v>
       </c>
       <c r="E67" s="13">
-        <v>69.787997469999993</v>
+        <v>6.99120893</v>
       </c>
       <c r="F67" s="13">
-        <v>2.0191359499999999</v>
+        <v>8.7573062000000004</v>
       </c>
       <c r="G67" s="13">
-        <v>0.82952004999999995</v>
+        <v>0.37057767000000003</v>
       </c>
       <c r="H67" s="13">
         <v>0</v>
@@ -7608,190 +7632,178 @@
         <v>0</v>
       </c>
       <c r="J67" s="13">
-        <v>0</v>
+        <v>2.3967468699999999</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="B68" s="13">
-        <v>14179</v>
-      </c>
-      <c r="C68" s="13">
-        <v>4</v>
-      </c>
+        <v>3677</v>
+      </c>
+      <c r="C68" s="14"/>
       <c r="D68" s="16">
-        <v>26.90626966</v>
+        <v>77.318466139999998</v>
       </c>
       <c r="E68" s="13">
-        <v>63.766593309999998</v>
+        <v>11.25917868</v>
       </c>
       <c r="F68" s="13">
-        <v>1.9629134399999999</v>
+        <v>8.2676094599999992</v>
       </c>
       <c r="G68" s="13">
-        <v>1.8349357799999999</v>
+        <v>0</v>
       </c>
       <c r="H68" s="13">
         <v>0</v>
       </c>
       <c r="I68" s="13">
-        <v>0.28057112000000001</v>
+        <v>0</v>
       </c>
       <c r="J68" s="13">
-        <v>0.61381032000000002</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.78868643000000005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="B69" s="13">
-        <v>6021</v>
-      </c>
-      <c r="C69" s="13">
-        <v>4</v>
-      </c>
+        <v>2256</v>
+      </c>
+      <c r="C69" s="14"/>
       <c r="D69" s="16">
-        <v>26.49061618</v>
+        <v>74.689716309999994</v>
       </c>
       <c r="E69" s="13">
-        <v>70.470021590000002</v>
+        <v>9.5301418400000006</v>
       </c>
       <c r="F69" s="13">
-        <v>0.23251952000000001</v>
+        <v>8.5549645400000003</v>
       </c>
       <c r="G69" s="13">
-        <v>2.8068427200000001</v>
+        <v>0</v>
       </c>
       <c r="H69" s="13">
-        <v>0</v>
+        <v>0.7535461</v>
       </c>
       <c r="I69" s="13">
         <v>0</v>
       </c>
       <c r="J69" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+        <v>1.3741134800000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="B70" s="13">
-        <v>9233</v>
-      </c>
-      <c r="C70" s="13">
-        <v>6</v>
-      </c>
+        <v>2780</v>
+      </c>
+      <c r="C70" s="14"/>
       <c r="D70" s="16">
-        <v>25.46269328</v>
+        <v>74.460431650000004</v>
       </c>
       <c r="E70" s="13">
-        <v>66.475966189999994</v>
+        <v>17.841726619999999</v>
       </c>
       <c r="F70" s="13">
-        <v>1.1260419399999999</v>
+        <v>1.33093525</v>
       </c>
       <c r="G70" s="13">
-        <v>1.64491184</v>
+        <v>0.28776977999999998</v>
       </c>
       <c r="H70" s="13">
-        <v>7.6060089999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="I70" s="13">
-        <v>0.22089292999999999</v>
+        <v>0</v>
       </c>
       <c r="J70" s="13">
-        <v>1.14243725</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.65467626</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="B71" s="13">
-        <v>11144</v>
-      </c>
-      <c r="C71" s="13">
-        <v>3</v>
-      </c>
+        <v>8976</v>
+      </c>
+      <c r="C71" s="14"/>
       <c r="D71" s="16">
-        <v>24.256083090000001</v>
+        <v>71.512923349999994</v>
       </c>
       <c r="E71" s="13">
-        <v>59.244299310000002</v>
+        <v>13.435828880000001</v>
       </c>
       <c r="F71" s="13">
-        <v>4.5236201500000002</v>
+        <v>5.2139037400000001</v>
       </c>
       <c r="G71" s="13">
-        <v>0.21083702000000001</v>
+        <v>1.5040107</v>
       </c>
       <c r="H71" s="13">
-        <v>5.2709260000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="I71" s="13">
         <v>0</v>
       </c>
       <c r="J71" s="13">
-        <v>3.03594279</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+        <v>2.1836007099999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="B72" s="13">
-        <v>39431</v>
-      </c>
-      <c r="C72" s="13">
-        <v>6</v>
-      </c>
+        <v>4491</v>
+      </c>
+      <c r="C72" s="14"/>
       <c r="D72" s="16">
-        <v>23.570113410000001</v>
+        <v>71.342685369999998</v>
       </c>
       <c r="E72" s="13">
-        <v>41.687211650000002</v>
+        <v>15.69806279</v>
       </c>
       <c r="F72" s="13">
-        <v>25.954962829999999</v>
+        <v>2.7165442</v>
       </c>
       <c r="G72" s="13">
-        <v>0.25922434</v>
+        <v>0.62346915999999997</v>
       </c>
       <c r="H72" s="13">
-        <v>4.8772969999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="I72" s="13">
-        <v>0.22497824999999999</v>
+        <v>0.48986863000000003</v>
       </c>
       <c r="J72" s="13">
-        <v>3.2284678499999999</v>
+        <v>5.5666889299999998</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="B73" s="13">
-        <v>6145</v>
-      </c>
-      <c r="C73" s="13">
-        <v>1</v>
-      </c>
+        <v>3927</v>
+      </c>
+      <c r="C73" s="14"/>
       <c r="D73" s="16">
-        <v>22.245728230000001</v>
+        <v>69.951617010000007</v>
       </c>
       <c r="E73" s="13">
-        <v>72.416598859999993</v>
+        <v>16.755793229999998</v>
       </c>
       <c r="F73" s="13">
-        <v>2.9454841300000001</v>
+        <v>6.0351413300000001</v>
       </c>
       <c r="G73" s="13">
-        <v>0.40683482999999998</v>
+        <v>0.20371785000000001</v>
       </c>
       <c r="H73" s="13">
         <v>0</v>
@@ -7800,126 +7812,118 @@
         <v>0</v>
       </c>
       <c r="J73" s="13">
-        <v>1.02522376</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+        <v>3.7942449699999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="B74" s="13">
-        <v>8879</v>
-      </c>
-      <c r="C74" s="13">
-        <v>3</v>
-      </c>
+        <v>778</v>
+      </c>
+      <c r="C74" s="14"/>
       <c r="D74" s="16">
-        <v>13.70649848</v>
+        <v>69.665809769999996</v>
       </c>
       <c r="E74" s="13">
-        <v>75.864399140000003</v>
+        <v>22.622107969999998</v>
       </c>
       <c r="F74" s="13">
-        <v>3.4350715200000002</v>
+        <v>1.41388175</v>
       </c>
       <c r="G74" s="13">
-        <v>0.19146299999999999</v>
+        <v>1.02827764</v>
       </c>
       <c r="H74" s="13">
         <v>0</v>
       </c>
       <c r="I74" s="13">
-        <v>1.126253E-2</v>
+        <v>1.28534704</v>
       </c>
       <c r="J74" s="13">
-        <v>0.18020047</v>
+        <v>3.9845758400000002</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="B75" s="13">
-        <v>6636</v>
-      </c>
-      <c r="C75" s="13">
-        <v>2</v>
-      </c>
+        <v>14437</v>
+      </c>
+      <c r="C75" s="14"/>
       <c r="D75" s="16">
-        <v>12.5376733</v>
+        <v>69.459544600000001</v>
       </c>
       <c r="E75" s="13">
-        <v>82.097649189999998</v>
+        <v>15.43463809</v>
       </c>
       <c r="F75" s="13">
-        <v>3.4358046999999998</v>
+        <v>7.9825429799999998</v>
       </c>
       <c r="G75" s="13">
-        <v>0.75346594</v>
+        <v>0</v>
       </c>
       <c r="H75" s="13">
-        <v>0</v>
+        <v>0.33557047000000001</v>
       </c>
       <c r="I75" s="13">
-        <v>0</v>
+        <v>0.72910843999999997</v>
       </c>
       <c r="J75" s="13">
-        <v>0.99457505000000002</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2.24705888</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="B76" s="13">
-        <v>4803</v>
-      </c>
-      <c r="C76" s="13">
-        <v>2</v>
-      </c>
+        <v>3490</v>
+      </c>
+      <c r="C76" s="14"/>
       <c r="D76" s="16">
-        <v>11.26379346</v>
+        <v>66.905444130000006</v>
       </c>
       <c r="E76" s="13">
-        <v>77.326670829999998</v>
+        <v>27.621776499999999</v>
       </c>
       <c r="F76" s="13">
-        <v>4.7470331000000003</v>
+        <v>0.37249283999999999</v>
       </c>
       <c r="G76" s="13">
-        <v>0.18738289</v>
+        <v>0</v>
       </c>
       <c r="H76" s="13">
         <v>0</v>
       </c>
       <c r="I76" s="13">
-        <v>0.70789089999999999</v>
+        <v>0</v>
       </c>
       <c r="J76" s="13">
-        <v>0.18738289</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+        <v>0.51575930999999997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="B77" s="13">
-        <v>17707</v>
-      </c>
-      <c r="C77" s="13">
-        <v>16</v>
-      </c>
+        <v>3530</v>
+      </c>
+      <c r="C77" s="14"/>
       <c r="D77" s="16">
-        <v>11.06235719</v>
+        <v>52.917847029999997</v>
       </c>
       <c r="E77" s="13">
-        <v>80.112349210000005</v>
+        <v>8.9801699700000004</v>
       </c>
       <c r="F77" s="13">
-        <v>4.21577979</v>
+        <v>33.626062320000003</v>
       </c>
       <c r="G77" s="13">
-        <v>0.95757820999999999</v>
+        <v>0</v>
       </c>
       <c r="H77" s="13">
         <v>0</v>
@@ -7928,80 +7932,73 @@
         <v>0</v>
       </c>
       <c r="J77" s="13">
-        <v>0.37620625000000002</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+        <v>4.4759206799999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B78" s="13">
-        <v>1437</v>
+        <v>1708</v>
       </c>
       <c r="C78" s="14"/>
       <c r="D78" s="16">
+        <v>35.304449650000002</v>
+      </c>
+      <c r="E78" s="13">
+        <v>28.747072599999999</v>
+      </c>
+      <c r="F78" s="13">
+        <v>27.16627635</v>
+      </c>
+      <c r="G78" s="13">
+        <v>0.64402809999999999</v>
+      </c>
+      <c r="H78" s="13">
+        <v>0</v>
+      </c>
+      <c r="I78" s="13">
+        <v>0</v>
+      </c>
+      <c r="J78" s="13">
+        <v>7.0257611200000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B79" s="13">
+        <v>1437</v>
+      </c>
+      <c r="C79" s="14"/>
+      <c r="D79" s="16">
         <v>10.16005567</v>
       </c>
-      <c r="E78" s="13">
+      <c r="E79" s="13">
         <v>41.684064020000001</v>
       </c>
-      <c r="F78" s="13">
+      <c r="F79" s="13">
         <v>43.632567850000001</v>
       </c>
-      <c r="G78" s="13">
+      <c r="G79" s="13">
         <v>1.8789144099999999</v>
       </c>
-      <c r="H78" s="13">
-        <v>0</v>
-      </c>
-      <c r="I78" s="13">
-        <v>0</v>
-      </c>
-      <c r="J78" s="13">
+      <c r="H79" s="13">
+        <v>0</v>
+      </c>
+      <c r="I79" s="13">
+        <v>0</v>
+      </c>
+      <c r="J79" s="13">
         <v>0.13917884999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B79" s="13">
-        <v>37060</v>
-      </c>
-      <c r="C79" s="13">
-        <v>12</v>
-      </c>
-      <c r="D79" s="16">
-        <v>9.4681963000000007</v>
-      </c>
-      <c r="E79" s="13">
-        <v>64.652140000000003</v>
-      </c>
-      <c r="F79" s="13">
-        <v>19.43616527</v>
-      </c>
-      <c r="G79" s="13">
-        <v>0.38692241999999999</v>
-      </c>
-      <c r="H79" s="13">
-        <v>0.45268245000000001</v>
-      </c>
-      <c r="I79" s="13">
-        <v>0.44746649999999999</v>
-      </c>
-      <c r="J79" s="13">
-        <v>2.7210643800000001</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J79" xr:uid="{E13D99EB-E24B-4387-B8E6-9E120DCCF642}">
-    <filterColumn colId="3">
-      <customFilters>
-        <customFilter operator="lessThanOrEqual" val="49.9"/>
-      </customFilters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J79">
-      <sortCondition descending="1" ref="D2:D79"/>
+      <sortCondition descending="1" ref="C2:C79"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
